--- a/datos/donaciones.xlsx
+++ b/datos/donaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA103E4-C5D8-47F3-AD4B-56233305A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197F2E94-CFBB-4F9F-8F6D-34E2D00C06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="dia2" sheetId="3" r:id="rId3"/>
     <sheet name="dia3" sheetId="4" r:id="rId4"/>
     <sheet name="dia4" sheetId="5" r:id="rId5"/>
+    <sheet name="dia5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>cant de total personas</t>
   </si>
@@ -119,12 +120,15 @@
   <si>
     <t>Recursos donados por ciudad día 4</t>
   </si>
+  <si>
+    <t>Recursos donados por ciudad día 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +150,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -242,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -312,6 +323,9 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1088,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2495,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L12" sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,4 +2960,473 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D45211-272E-4096-A558-EC5CCC34DB2A}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos/donaciones.xlsx
+++ b/datos/donaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197F2E94-CFBB-4F9F-8F6D-34E2D00C06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E89BB-3106-43B5-BEAD-3940610112C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,9 +54,6 @@
   </si>
   <si>
     <t>kg donados alcohol</t>
-  </si>
-  <si>
-    <t>kg donados algodón</t>
   </si>
   <si>
     <t>kg donados bolsas hielo</t>
@@ -86,9 +81,6 @@
   </si>
   <si>
     <t>La Serena</t>
-  </si>
-  <si>
-    <t>Concepción</t>
   </si>
   <si>
     <t>Temuco</t>
@@ -122,6 +114,12 @@
   </si>
   <si>
     <t>Recursos donados por ciudad día 5</t>
+  </si>
+  <si>
+    <t>kg donados algodon</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
   </si>
 </sst>
 </file>
@@ -610,20 +608,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>1</v>
@@ -637,25 +635,25 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="16">
         <v>0.03</v>
@@ -693,7 +691,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16">
         <v>0.75</v>
@@ -731,7 +729,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="16">
         <v>0.03</v>
@@ -769,7 +767,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="16">
         <v>0.02</v>
@@ -807,7 +805,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="16">
         <v>0.02</v>
@@ -845,7 +843,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" s="16">
         <v>0.02</v>
@@ -883,7 +881,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16">
         <v>0.03</v>
@@ -921,7 +919,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="16">
         <v>0.03</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="16">
         <v>0.04</v>
@@ -997,7 +995,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16">
         <v>0.03</v>
@@ -1088,20 +1086,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1116,24 +1114,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>0.03</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>0.75</v>
@@ -1209,7 +1207,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>0.03</v>
@@ -1247,7 +1245,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>0.02</v>
@@ -1285,7 +1283,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>0.02</v>
@@ -1322,8 +1320,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
@@ -1361,7 +1359,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>0.03</v>
@@ -1399,7 +1397,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>0.03</v>
@@ -1437,7 +1435,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>0.04</v>
@@ -1475,7 +1473,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>0.03</v>
@@ -1557,20 +1555,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1585,24 +1583,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8">
         <v>0.03</v>
@@ -1640,7 +1638,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>0.75</v>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8">
         <v>0.03</v>
@@ -1716,7 +1714,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <v>0.02</v>
@@ -1754,7 +1752,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
         <v>0.02</v>
@@ -1791,8 +1789,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <v>0.02</v>
@@ -1830,7 +1828,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8">
         <v>0.03</v>
@@ -1868,7 +1866,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>0.03</v>
@@ -1906,7 +1904,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
         <v>0.04</v>
@@ -1944,7 +1942,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>0.03</v>
@@ -2026,20 +2024,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2054,24 +2052,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
@@ -2109,7 +2107,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
@@ -2185,7 +2183,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
@@ -2223,7 +2221,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
@@ -2260,8 +2258,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
@@ -2299,7 +2297,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
@@ -2337,7 +2335,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
@@ -2375,7 +2373,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
@@ -2413,7 +2411,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>
@@ -2495,7 +2493,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:L12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,13 +2503,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2526,24 +2524,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
@@ -2581,7 +2579,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
@@ -2619,7 +2617,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
@@ -2657,7 +2655,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
@@ -2695,7 +2693,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
@@ -2732,8 +2730,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
@@ -2771,7 +2769,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
@@ -2809,7 +2807,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
@@ -2847,7 +2845,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
@@ -2885,7 +2883,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>
@@ -2967,20 +2965,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2995,24 +2993,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
@@ -3050,7 +3048,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
@@ -3088,7 +3086,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
@@ -3126,7 +3124,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
@@ -3164,7 +3162,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
@@ -3201,8 +3199,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
@@ -3240,7 +3238,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
@@ -3278,7 +3276,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
@@ -3316,7 +3314,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
@@ -3354,7 +3352,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>

--- a/datos/donaciones.xlsx
+++ b/datos/donaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E89BB-3106-43B5-BEAD-3940610112C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{616E89BB-3106-43B5-BEAD-3940610112C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67836E1-8C08-43D3-8A54-9CAEB0E2F3A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="dia4" sheetId="5" r:id="rId5"/>
     <sheet name="dia5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
+    <t>Recursos totales donados por ciudad</t>
+  </si>
+  <si>
     <t>cant de total personas</t>
+  </si>
+  <si>
+    <t>kg agua</t>
   </si>
   <si>
     <t>kg donados antiinflamatorio</t>
@@ -54,6 +62,9 @@
   </si>
   <si>
     <t>kg donados alcohol</t>
+  </si>
+  <si>
+    <t>kg donados algodon</t>
   </si>
   <si>
     <t>kg donados bolsas hielo</t>
@@ -83,25 +94,22 @@
     <t>La Serena</t>
   </si>
   <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
     <t>Temuco</t>
   </si>
   <si>
-    <t>Antofagasta</t>
+    <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Recursos totales donados por ciudad</t>
-  </si>
-  <si>
-    <t>Puerto Montt</t>
+    <t>Antofagasta</t>
   </si>
   <si>
     <t>Iquique</t>
   </si>
   <si>
     <t>Recursos donados por ciudad día 1</t>
-  </si>
-  <si>
-    <t>kg agua</t>
   </si>
   <si>
     <t>Recursos donados por ciudad día 2</t>
@@ -115,18 +123,12 @@
   <si>
     <t>Recursos donados por ciudad día 5</t>
   </si>
-  <si>
-    <t>kg donados algodon</t>
-  </si>
-  <si>
-    <t>Concepcion</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +159,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -251,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -325,6 +335,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,474 +616,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="40.9" thickBot="1">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="16">
         <v>0.03</v>
       </c>
       <c r="C2" s="22">
-        <v>931.56</v>
+        <v>1863.12</v>
       </c>
       <c r="D2" s="16">
-        <v>4.3127478519999998E-2</v>
+        <v>8.6254957039999997E-2</v>
       </c>
       <c r="E2" s="16">
-        <v>0.232888384</v>
+        <v>0.46577676800000001</v>
       </c>
       <c r="F2" s="17">
-        <v>0.31051784529999998</v>
+        <v>0.62103569059999997</v>
       </c>
       <c r="G2" s="17">
-        <v>7.7629461329999998</v>
+        <v>15.525892266</v>
       </c>
       <c r="H2" s="17">
-        <v>2.0701189690000001</v>
+        <v>4.1402379380000003</v>
       </c>
       <c r="I2" s="17">
-        <v>51.752974219999999</v>
+        <v>103.50594844</v>
       </c>
       <c r="J2" s="17">
-        <v>0.10350594840000001</v>
+        <v>0.20701189680000001</v>
       </c>
       <c r="K2" s="17">
-        <v>0.31051784529999998</v>
+        <v>0.62103569059999997</v>
       </c>
       <c r="L2" s="18">
-        <v>1.7250991410000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>17</v>
+        <v>3.4501982820000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="16">
         <v>0.75</v>
       </c>
       <c r="C3" s="23">
-        <v>20164.73</v>
+        <v>40329.46</v>
       </c>
       <c r="D3" s="16">
-        <v>0.93355212639999996</v>
+        <v>1.8671042527999999</v>
       </c>
       <c r="E3" s="16">
-        <v>5.0411814829999999</v>
+        <v>10.082362966</v>
       </c>
       <c r="F3" s="17">
-        <v>6.7215753100000004</v>
+        <v>13.443150620000001</v>
       </c>
       <c r="G3" s="17">
-        <v>168.0393828</v>
+        <v>336.0787656</v>
       </c>
       <c r="H3" s="17">
-        <v>44.810502069999998</v>
+        <v>89.621004139999997</v>
       </c>
       <c r="I3" s="17">
-        <v>1120.2625519999999</v>
+        <v>2240.5251039999998</v>
       </c>
       <c r="J3" s="17">
-        <v>2.240525103</v>
+        <v>4.4810502059999999</v>
       </c>
       <c r="K3" s="17">
-        <v>6.7215753100000004</v>
+        <v>13.443150620000001</v>
       </c>
       <c r="L3" s="18">
-        <v>37.342085060000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>74.684170120000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="16">
         <v>0.03</v>
       </c>
       <c r="C4" s="22">
-        <v>692.99</v>
+        <v>1385.98</v>
       </c>
       <c r="D4" s="16">
-        <v>3.2082636460000001E-2</v>
+        <v>6.4165272920000002E-2</v>
       </c>
       <c r="E4" s="16">
-        <v>0.17324623689999999</v>
+        <v>0.34649247379999998</v>
       </c>
       <c r="F4" s="17">
-        <v>0.2309949825</v>
+        <v>0.461989965</v>
       </c>
       <c r="G4" s="17">
-        <v>5.7748745619999999</v>
+        <v>11.549749124</v>
       </c>
       <c r="H4" s="17">
-        <v>1.5399665499999999</v>
+        <v>3.0799330999999999</v>
       </c>
       <c r="I4" s="17">
-        <v>38.499163750000001</v>
+        <v>76.998327500000002</v>
       </c>
       <c r="J4" s="17">
-        <v>7.6998327500000005E-2</v>
+        <v>0.15399665500000001</v>
       </c>
       <c r="K4" s="17">
-        <v>0.2309949825</v>
+        <v>0.461989965</v>
       </c>
       <c r="L4" s="18">
-        <v>1.2833054580000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>2.5666109160000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="16">
         <v>0.02</v>
       </c>
       <c r="C5" s="22">
-        <v>553.82000000000005</v>
+        <v>1107.6400000000001</v>
       </c>
       <c r="D5" s="16">
-        <v>2.5639811920000002E-2</v>
+        <v>5.1279623840000003E-2</v>
       </c>
       <c r="E5" s="16">
-        <v>0.13845498440000001</v>
+        <v>0.27690996880000002</v>
       </c>
       <c r="F5" s="17">
-        <v>0.1846066458</v>
+        <v>0.36921329159999999</v>
       </c>
       <c r="G5" s="17">
-        <v>4.615166146</v>
+        <v>9.2303322919999999</v>
       </c>
       <c r="H5" s="17">
-        <v>1.230710972</v>
+        <v>2.461421944</v>
       </c>
       <c r="I5" s="17">
-        <v>30.76777431</v>
+        <v>61.53554862</v>
       </c>
       <c r="J5" s="17">
-        <v>6.1535548609999997E-2</v>
+        <v>0.12307109721999999</v>
       </c>
       <c r="K5" s="17">
-        <v>0.1846066458</v>
+        <v>0.36921329159999999</v>
       </c>
       <c r="L5" s="18">
-        <v>1.025592477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
+        <v>2.051184954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="16">
         <v>0.02</v>
       </c>
       <c r="C6" s="22">
-        <v>610.63</v>
+        <v>1221.26</v>
       </c>
       <c r="D6" s="16">
-        <v>2.8269536219999999E-2</v>
+        <v>5.6539072439999997E-2</v>
       </c>
       <c r="E6" s="16">
-        <v>0.1526554956</v>
+        <v>0.30531099119999999</v>
       </c>
       <c r="F6" s="17">
-        <v>0.2035406608</v>
+        <v>0.40708132159999999</v>
       </c>
       <c r="G6" s="17">
-        <v>5.0885165199999998</v>
+        <v>10.17703304</v>
       </c>
       <c r="H6" s="17">
-        <v>1.3569377389999999</v>
+        <v>2.7138754779999998</v>
       </c>
       <c r="I6" s="17">
-        <v>33.923443470000002</v>
+        <v>67.846886940000005</v>
       </c>
       <c r="J6" s="17">
-        <v>6.7846886930000003E-2</v>
+        <v>0.13569377386000001</v>
       </c>
       <c r="K6" s="17">
-        <v>0.2035406608</v>
+        <v>0.40708132159999999</v>
       </c>
       <c r="L6" s="18">
-        <v>1.1307814490000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.2615628980000002</v>
+      </c>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="16">
         <v>0.02</v>
       </c>
       <c r="C7" s="22">
-        <v>650.38</v>
+        <v>1300.76</v>
       </c>
       <c r="D7" s="16">
-        <v>3.0110343229999999E-2</v>
+        <v>6.0220686459999999E-2</v>
       </c>
       <c r="E7" s="16">
-        <v>0.1625958535</v>
+        <v>0.325191707</v>
       </c>
       <c r="F7" s="17">
-        <v>0.21679447130000001</v>
+        <v>0.43358894260000003</v>
       </c>
       <c r="G7" s="17">
-        <v>5.4198617819999999</v>
+        <v>10.839723564</v>
       </c>
       <c r="H7" s="17">
-        <v>1.4452964749999999</v>
+        <v>2.8905929499999998</v>
       </c>
       <c r="I7" s="17">
-        <v>36.132411879999999</v>
+        <v>72.264823759999999</v>
       </c>
       <c r="J7" s="17">
-        <v>7.2264823759999999E-2</v>
+        <v>0.14452964752</v>
       </c>
       <c r="K7" s="17">
-        <v>0.21679447130000001</v>
+        <v>0.43358894260000003</v>
       </c>
       <c r="L7" s="18">
-        <v>1.2044137290000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>2.4088274580000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="16">
         <v>0.03</v>
       </c>
       <c r="C8" s="22">
-        <v>710.02</v>
+        <v>1420.04</v>
       </c>
       <c r="D8" s="16">
-        <v>3.2871553749999997E-2</v>
+        <v>6.5743107499999995E-2</v>
       </c>
       <c r="E8" s="16">
-        <v>0.1775063902</v>
+        <v>0.35501278040000001</v>
       </c>
       <c r="F8" s="17">
-        <v>0.23667518700000001</v>
+        <v>0.47335037400000002</v>
       </c>
       <c r="G8" s="17">
-        <v>5.9168796739999996</v>
+        <v>11.833759347999999</v>
       </c>
       <c r="H8" s="17">
-        <v>1.57783458</v>
+        <v>3.15566916</v>
       </c>
       <c r="I8" s="17">
-        <v>39.445864499999999</v>
+        <v>78.891728999999998</v>
       </c>
       <c r="J8" s="17">
-        <v>7.8891728990000007E-2</v>
+        <v>0.15778345798000001</v>
       </c>
       <c r="K8" s="17">
-        <v>0.23667518700000001</v>
+        <v>0.47335037400000002</v>
       </c>
       <c r="L8" s="18">
-        <v>1.31486215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>2.6297242999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="16">
         <v>0.03</v>
       </c>
       <c r="C9" s="22">
-        <v>698.38</v>
+        <v>1396.76</v>
       </c>
       <c r="D9" s="16">
-        <v>3.2332460260000001E-2</v>
+        <v>6.4664920520000002E-2</v>
       </c>
       <c r="E9" s="16">
-        <v>0.17459528539999999</v>
+        <v>0.34919057079999999</v>
       </c>
       <c r="F9" s="17">
-        <v>0.2327937139</v>
+        <v>0.46558742780000001</v>
       </c>
       <c r="G9" s="17">
-        <v>5.8198428480000004</v>
+        <v>11.639685696000001</v>
       </c>
       <c r="H9" s="17">
-        <v>1.5519580930000001</v>
+        <v>3.1039161860000002</v>
       </c>
       <c r="I9" s="17">
-        <v>38.798952319999998</v>
+        <v>77.597904639999996</v>
       </c>
       <c r="J9" s="17">
-        <v>7.7597904640000007E-2</v>
+        <v>0.15519580928000001</v>
       </c>
       <c r="K9" s="17">
-        <v>0.2327937139</v>
+        <v>0.46558742780000001</v>
       </c>
       <c r="L9" s="18">
-        <v>1.2932984110000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>2.5865968220000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="16">
         <v>0.04</v>
       </c>
       <c r="C10" s="23">
-        <v>1136.04</v>
+        <v>2272.08</v>
       </c>
       <c r="D10" s="16">
-        <v>5.2594485990000002E-2</v>
+        <v>0.10518897198</v>
       </c>
       <c r="E10" s="16">
-        <v>0.28401022440000001</v>
+        <v>0.56802044880000002</v>
       </c>
       <c r="F10" s="17">
-        <v>0.37868029920000001</v>
+        <v>0.75736059840000003</v>
       </c>
       <c r="G10" s="17">
-        <v>9.4670074789999994</v>
+        <v>18.934014957999999</v>
       </c>
       <c r="H10" s="17">
-        <v>2.5245353279999998</v>
+        <v>5.0490706559999996</v>
       </c>
       <c r="I10" s="17">
-        <v>63.11338319</v>
+        <v>126.22676638</v>
       </c>
       <c r="J10" s="17">
-        <v>0.1262267664</v>
+        <v>0.25245353279999999</v>
       </c>
       <c r="K10" s="17">
-        <v>0.37868029920000001</v>
+        <v>0.75736059840000003</v>
       </c>
       <c r="L10" s="18">
-        <v>2.1037794399999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>12</v>
+        <v>4.2075588799999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>0.03</v>
       </c>
       <c r="C11" s="22">
-        <v>851.47</v>
+        <v>1702.94</v>
       </c>
       <c r="D11" s="16">
-        <v>3.9419567250000002E-2</v>
+        <v>7.8839134500000005E-2</v>
       </c>
       <c r="E11" s="16">
-        <v>0.2128656632</v>
+        <v>0.4257313264</v>
       </c>
       <c r="F11" s="17">
-        <v>0.28382088420000001</v>
+        <v>0.56764176840000002</v>
       </c>
       <c r="G11" s="17">
-        <v>7.0955221049999997</v>
+        <v>14.191044209999999</v>
       </c>
       <c r="H11" s="17">
-        <v>1.892139228</v>
+        <v>3.784278456</v>
       </c>
       <c r="I11" s="17">
-        <v>47.303480700000001</v>
+        <v>94.606961400000003</v>
       </c>
       <c r="J11" s="17">
-        <v>9.4606961409999996E-2</v>
+        <v>0.18921392281999999</v>
       </c>
       <c r="K11" s="17">
-        <v>0.28382088420000001</v>
+        <v>0.56764176840000002</v>
       </c>
       <c r="L11" s="18">
-        <v>1.5767826899999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.1535653799999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" s="13"/>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="23">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="D12" s="19">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="14">
-        <f>SUM(E2:E11)</f>
-        <v>6.7500000005999992</v>
+        <v>13.500000001199998</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12:L12" si="0">SUM(F2:F11)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>225.00000004900002</v>
+        <v>450.00000009800004</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>60.000000004</v>
+        <v>120.000000008</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="0"/>
-        <v>1500.0000003399996</v>
+        <v>3000.0000006799992</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>2.99999999964</v>
+        <v>5.9999999992799999</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="0"/>
-        <v>50.000000005000011</v>
+        <v>100.00000001000002</v>
       </c>
     </row>
   </sheetData>
@@ -1083,466 +1087,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B44BBE-0F76-47A7-AB36-05EFDFADEB3D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="40.9" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>0.03</v>
       </c>
       <c r="C2" s="6">
-        <v>414.02</v>
+        <v>828.04</v>
       </c>
       <c r="D2" s="7">
-        <v>1.7250991409999999E-2</v>
+        <v>3.4501982819999999E-2</v>
       </c>
       <c r="E2" s="8">
-        <v>9.3155353590000003E-2</v>
+        <v>0.18631070718000001</v>
       </c>
       <c r="F2" s="9">
-        <v>0.1242071381</v>
+        <v>0.24841427620000001</v>
       </c>
       <c r="G2" s="9">
-        <v>3.1051784530000002</v>
+        <v>6.2103569060000003</v>
       </c>
       <c r="H2" s="9">
-        <v>0.82804758749999996</v>
+        <v>1.6560951749999999</v>
       </c>
       <c r="I2" s="9">
-        <v>20.70118969</v>
+        <v>41.402379379999999</v>
       </c>
       <c r="J2" s="9">
-        <v>4.1402379369999999E-2</v>
+        <v>8.2804758739999998E-2</v>
       </c>
       <c r="K2" s="9">
-        <v>0.1242071381</v>
+        <v>0.24841427620000001</v>
       </c>
       <c r="L2" s="9">
-        <v>0.69003965619999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.3800793123999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>0.75</v>
       </c>
       <c r="C3" s="10">
-        <v>8962.1</v>
+        <v>17924.2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.37342085060000002</v>
+        <v>0.74684170120000004</v>
       </c>
       <c r="E3" s="8">
-        <v>2.016472593</v>
+        <v>4.0329451860000001</v>
       </c>
       <c r="F3" s="9">
-        <v>2.6886301239999999</v>
+        <v>5.3772602479999998</v>
       </c>
       <c r="G3" s="9">
-        <v>67.215753100000001</v>
+        <v>134.4315062</v>
       </c>
       <c r="H3" s="9">
-        <v>17.92420083</v>
+        <v>35.84840166</v>
       </c>
       <c r="I3" s="9">
-        <v>448.10502070000001</v>
+        <v>896.21004140000002</v>
       </c>
       <c r="J3" s="9">
-        <v>0.89621004130000004</v>
+        <v>1.7924200826000001</v>
       </c>
       <c r="K3" s="9">
-        <v>2.6886301239999999</v>
+        <v>5.3772602479999998</v>
       </c>
       <c r="L3" s="9">
-        <v>14.936834019999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29.873668039999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>307.99</v>
+        <v>615.98</v>
       </c>
       <c r="D4" s="7">
-        <v>1.2833054579999999E-2</v>
+        <v>2.5666109159999999E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>6.9298494749999995E-2</v>
+        <v>0.13859698949999999</v>
       </c>
       <c r="F4" s="9">
-        <v>9.2397992989999997E-2</v>
+        <v>0.18479598597999999</v>
       </c>
       <c r="G4" s="9">
-        <v>2.3099498249999999</v>
+        <v>4.6198996499999998</v>
       </c>
       <c r="H4" s="9">
-        <v>0.61598662000000004</v>
+        <v>1.2319732400000001</v>
       </c>
       <c r="I4" s="9">
-        <v>15.399665499999999</v>
+        <v>30.799330999999999</v>
       </c>
       <c r="J4" s="9">
-        <v>3.0799330999999999E-2</v>
+        <v>6.1598661999999998E-2</v>
       </c>
       <c r="K4" s="9">
-        <v>9.2397992989999997E-2</v>
+        <v>0.18479598597999999</v>
       </c>
       <c r="L4" s="9">
-        <v>0.51332218330000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0266443666</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>0.02</v>
       </c>
       <c r="C5" s="6">
-        <v>246.14</v>
+        <v>492.28</v>
       </c>
       <c r="D5" s="7">
-        <v>1.0255924770000001E-2</v>
+        <v>2.0511849540000002E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>5.5381993749999997E-2</v>
+        <v>0.11076398749999999</v>
       </c>
       <c r="F5" s="9">
-        <v>7.3842658340000006E-2</v>
+        <v>0.14768531668000001</v>
       </c>
       <c r="G5" s="9">
-        <v>1.8460664579999999</v>
+        <v>3.6921329159999998</v>
       </c>
       <c r="H5" s="9">
-        <v>0.49228438889999998</v>
+        <v>0.98456877779999996</v>
       </c>
       <c r="I5" s="9">
-        <v>12.30710972</v>
+        <v>24.614219439999999</v>
       </c>
       <c r="J5" s="9">
-        <v>2.4614219449999999E-2</v>
+        <v>4.9228438899999998E-2</v>
       </c>
       <c r="K5" s="9">
-        <v>7.3842658340000006E-2</v>
+        <v>0.14768531668000001</v>
       </c>
       <c r="L5" s="9">
-        <v>0.41023699079999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.82047398159999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>0.02</v>
       </c>
       <c r="C6" s="6">
-        <v>271.39</v>
+        <v>542.78</v>
       </c>
       <c r="D6" s="7">
-        <v>1.130781449E-2</v>
+        <v>2.261562898E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>6.1062198239999997E-2</v>
+        <v>0.12212439647999999</v>
       </c>
       <c r="F6" s="9">
-        <v>8.1416264320000001E-2</v>
+        <v>0.16283252864</v>
       </c>
       <c r="G6" s="9">
-        <v>2.0354066080000002</v>
+        <v>4.0708132160000003</v>
       </c>
       <c r="H6" s="9">
-        <v>0.54277509550000003</v>
+        <v>1.0855501910000001</v>
       </c>
       <c r="I6" s="9">
-        <v>13.56937739</v>
+        <v>27.138754779999999</v>
       </c>
       <c r="J6" s="9">
-        <v>2.7138754769999999E-2</v>
+        <v>5.4277509539999998E-2</v>
       </c>
       <c r="K6" s="9">
-        <v>8.1416264320000001E-2</v>
+        <v>0.16283252864</v>
       </c>
       <c r="L6" s="9">
-        <v>0.45231257949999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.90462515899999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
       </c>
       <c r="C7" s="6">
-        <v>289.06</v>
+        <v>578.12</v>
       </c>
       <c r="D7" s="7">
-        <v>1.204413729E-2</v>
+        <v>2.4088274579999999E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>6.5038341380000003E-2</v>
+        <v>0.13007668276000001</v>
       </c>
       <c r="F7" s="9">
-        <v>8.6717788510000005E-2</v>
+        <v>0.17343557702000001</v>
       </c>
       <c r="G7" s="9">
-        <v>2.1679447129999998</v>
+        <v>4.3358894259999996</v>
       </c>
       <c r="H7" s="9">
-        <v>0.57811858999999999</v>
+        <v>1.15623718</v>
       </c>
       <c r="I7" s="9">
-        <v>14.45296475</v>
+        <v>28.905929499999999</v>
       </c>
       <c r="J7" s="9">
-        <v>2.89059295E-2</v>
+        <v>5.7811859E-2</v>
       </c>
       <c r="K7" s="9">
-        <v>8.6717788510000005E-2</v>
+        <v>0.17343557702000001</v>
       </c>
       <c r="L7" s="9">
-        <v>0.48176549169999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.96353098339999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>0.03</v>
       </c>
       <c r="C8" s="6">
-        <v>315.57</v>
+        <v>631.14</v>
       </c>
       <c r="D8" s="7">
-        <v>1.3148621500000001E-2</v>
+        <v>2.6297243000000001E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>7.1002556090000002E-2</v>
+        <v>0.14200511218</v>
       </c>
       <c r="F8" s="9">
-        <v>9.4670074790000003E-2</v>
+        <v>0.18934014958000001</v>
       </c>
       <c r="G8" s="9">
-        <v>2.3667518699999999</v>
+        <v>4.7335037399999997</v>
       </c>
       <c r="H8" s="9">
-        <v>0.63113383190000005</v>
+        <v>1.2622676638000001</v>
       </c>
       <c r="I8" s="9">
-        <v>15.7783458</v>
+        <v>31.556691600000001</v>
       </c>
       <c r="J8" s="9">
-        <v>3.1556691599999999E-2</v>
+        <v>6.3113383199999998E-2</v>
       </c>
       <c r="K8" s="9">
-        <v>9.4670074790000003E-2</v>
+        <v>0.18934014958000001</v>
       </c>
       <c r="L8" s="9">
-        <v>0.52594485989999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0518897197999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>0.03</v>
       </c>
       <c r="C9" s="6">
-        <v>310.39</v>
+        <v>620.78</v>
       </c>
       <c r="D9" s="7">
-        <v>1.293298411E-2</v>
+        <v>2.586596822E-2</v>
       </c>
       <c r="E9" s="8">
-        <v>6.9838114170000007E-2</v>
+        <v>0.13967622834000001</v>
       </c>
       <c r="F9" s="9">
-        <v>9.3117485560000005E-2</v>
+        <v>0.18623497112000001</v>
       </c>
       <c r="G9" s="9">
-        <v>2.3279371389999999</v>
+        <v>4.6558742779999998</v>
       </c>
       <c r="H9" s="9">
-        <v>0.62078323710000005</v>
+        <v>1.2415664742000001</v>
       </c>
       <c r="I9" s="9">
-        <v>15.51958093</v>
+        <v>31.03916186</v>
       </c>
       <c r="J9" s="9">
-        <v>3.103916185E-2</v>
+        <v>6.20783237E-2</v>
       </c>
       <c r="K9" s="9">
-        <v>9.3117485560000005E-2</v>
+        <v>0.18623497112000001</v>
       </c>
       <c r="L9" s="9">
-        <v>0.51731936420000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0346387284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>0.04</v>
       </c>
       <c r="C10" s="6">
-        <v>504.91</v>
+        <v>1009.82</v>
       </c>
       <c r="D10" s="7">
-        <v>2.10377944E-2</v>
+        <v>4.2075588800000001E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>0.11360408969999999</v>
+        <v>0.22720817939999999</v>
       </c>
       <c r="F10" s="9">
-        <v>0.15147211969999999</v>
+        <v>0.30294423939999998</v>
       </c>
       <c r="G10" s="9">
-        <v>3.7868029920000001</v>
+        <v>7.5736059840000003</v>
       </c>
       <c r="H10" s="9">
-        <v>1.0098141309999999</v>
+        <v>2.0196282619999999</v>
       </c>
       <c r="I10" s="9">
-        <v>25.24535328</v>
+        <v>50.49070656</v>
       </c>
       <c r="J10" s="9">
-        <v>5.049070655E-2</v>
+        <v>0.1009814131</v>
       </c>
       <c r="K10" s="9">
-        <v>0.15147211969999999</v>
+        <v>0.30294423939999998</v>
       </c>
       <c r="L10" s="9">
-        <v>0.84151177590000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.6830235518000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>0.03</v>
       </c>
       <c r="C11" s="6">
-        <v>378.43</v>
+        <v>756.86</v>
       </c>
       <c r="D11" s="7">
-        <v>1.57678269E-2</v>
+        <v>3.1535653800000001E-2</v>
       </c>
       <c r="E11" s="8">
-        <v>8.5146265269999993E-2</v>
+        <v>0.17029253053999999</v>
       </c>
       <c r="F11" s="9">
-        <v>0.1135283537</v>
+        <v>0.2270567074</v>
       </c>
       <c r="G11" s="9">
-        <v>2.8382088419999998</v>
+        <v>5.6764176839999996</v>
       </c>
       <c r="H11" s="9">
-        <v>0.75685569119999996</v>
+        <v>1.5137113823999999</v>
       </c>
       <c r="I11" s="9">
-        <v>18.921392279999999</v>
+        <v>37.842784559999998</v>
       </c>
       <c r="J11" s="9">
-        <v>3.7842784560000002E-2</v>
+        <v>7.5685569120000004E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>0.1135283537</v>
+        <v>0.2270567074</v>
       </c>
       <c r="L11" s="9">
-        <v>0.63071307600000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.2614261520000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="12">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="F12" s="7">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="G12" s="9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H12" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I12" s="9">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="9">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K12" s="9">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="L12" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1555,463 +1560,463 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="40.9" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>0.03</v>
       </c>
       <c r="C2" s="6">
-        <v>310.52</v>
+        <v>621.04</v>
       </c>
       <c r="D2" s="7">
-        <v>1.294E-2</v>
+        <v>2.588E-2</v>
       </c>
       <c r="E2" s="8">
-        <v>6.9866515190000006E-2</v>
+        <v>0.13973303038000001</v>
       </c>
       <c r="F2" s="9">
-        <v>9.3155353590000003E-2</v>
+        <v>0.18631070718000001</v>
       </c>
       <c r="G2" s="9">
-        <v>2.32888384</v>
+        <v>4.6577676800000001</v>
       </c>
       <c r="H2" s="9">
-        <v>0.62103569059999997</v>
+        <v>1.2420713811999999</v>
       </c>
       <c r="I2" s="9">
-        <v>15.52589227</v>
+        <v>31.05178454</v>
       </c>
       <c r="J2" s="9">
-        <v>3.1051784530000001E-2</v>
+        <v>6.2103569060000002E-2</v>
       </c>
       <c r="K2" s="9">
-        <v>9.3155353590000003E-2</v>
+        <v>0.18631070718000001</v>
       </c>
       <c r="L2" s="9">
-        <v>0.51752974220000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0350594844000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>0.75</v>
       </c>
       <c r="C3" s="10">
-        <v>6721.58</v>
+        <v>13443.16</v>
       </c>
       <c r="D3" s="7">
-        <v>0.28006999999999999</v>
+        <v>0.56013999999999997</v>
       </c>
       <c r="E3" s="8">
-        <v>1.5123544449999999</v>
+        <v>3.0247088899999999</v>
       </c>
       <c r="F3" s="9">
-        <v>2.016472593</v>
+        <v>4.0329451860000001</v>
       </c>
       <c r="G3" s="9">
-        <v>50.411814829999997</v>
+        <v>100.82362965999999</v>
       </c>
       <c r="H3" s="9">
-        <v>13.443150620000001</v>
+        <v>26.886301240000002</v>
       </c>
       <c r="I3" s="9">
-        <v>336.07876549999997</v>
+        <v>672.15753099999995</v>
       </c>
       <c r="J3" s="9">
-        <v>0.67215753099999997</v>
+        <v>1.3443150619999999</v>
       </c>
       <c r="K3" s="9">
-        <v>2.016472593</v>
+        <v>4.0329451860000001</v>
       </c>
       <c r="L3" s="9">
-        <v>11.20262552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22.40525104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>230.99</v>
+        <v>461.98</v>
       </c>
       <c r="D4" s="7">
-        <v>9.6200000000000001E-3</v>
+        <v>1.924E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>5.1973871060000003E-2</v>
+        <v>0.10394774212000001</v>
       </c>
       <c r="F4" s="9">
-        <v>6.9298494749999995E-2</v>
+        <v>0.13859698949999999</v>
       </c>
       <c r="G4" s="9">
-        <v>1.7324623690000001</v>
+        <v>3.4649247380000001</v>
       </c>
       <c r="H4" s="9">
-        <v>0.461989965</v>
+        <v>0.92397993</v>
       </c>
       <c r="I4" s="9">
-        <v>11.54974912</v>
+        <v>23.099498239999999</v>
       </c>
       <c r="J4" s="9">
-        <v>2.3099498249999999E-2</v>
+        <v>4.6198996499999999E-2</v>
       </c>
       <c r="K4" s="9">
-        <v>6.9298494749999995E-2</v>
+        <v>0.13859698949999999</v>
       </c>
       <c r="L4" s="9">
-        <v>0.38499163749999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.76998327499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <v>0.02</v>
       </c>
       <c r="C5" s="6">
-        <v>184.61</v>
+        <v>369.22</v>
       </c>
       <c r="D5" s="7">
-        <v>7.6899999999999998E-3</v>
+        <v>1.538E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>4.1536495309999998E-2</v>
+        <v>8.3072990619999995E-2</v>
       </c>
       <c r="F5" s="9">
-        <v>5.5381993749999997E-2</v>
+        <v>0.11076398749999999</v>
       </c>
       <c r="G5" s="9">
-        <v>1.3845498439999999</v>
+        <v>2.7690996879999998</v>
       </c>
       <c r="H5" s="9">
-        <v>0.3692132917</v>
+        <v>0.7384265834</v>
       </c>
       <c r="I5" s="9">
-        <v>9.2303322919999999</v>
+        <v>18.460664584</v>
       </c>
       <c r="J5" s="9">
-        <v>1.8460664580000001E-2</v>
+        <v>3.6921329160000002E-2</v>
       </c>
       <c r="K5" s="9">
-        <v>5.5381993749999997E-2</v>
+        <v>0.11076398749999999</v>
       </c>
       <c r="L5" s="9">
-        <v>0.30767774310000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.61535548620000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>0.02</v>
       </c>
       <c r="C6" s="6">
-        <v>203.54</v>
+        <v>407.08</v>
       </c>
       <c r="D6" s="7">
-        <v>8.4799999999999997E-3</v>
+        <v>1.6959999999999999E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>4.5796648680000003E-2</v>
+        <v>9.1593297360000006E-2</v>
       </c>
       <c r="F6" s="9">
-        <v>6.1062198239999997E-2</v>
+        <v>0.12212439647999999</v>
       </c>
       <c r="G6" s="9">
-        <v>1.526554956</v>
+        <v>3.053109912</v>
       </c>
       <c r="H6" s="9">
-        <v>0.40708132159999999</v>
+        <v>0.81416264319999998</v>
       </c>
       <c r="I6" s="9">
-        <v>10.17703304</v>
+        <v>20.354066079999999</v>
       </c>
       <c r="J6" s="9">
-        <v>2.035406608E-2</v>
+        <v>4.070813216E-2</v>
       </c>
       <c r="K6" s="9">
-        <v>6.1062198239999997E-2</v>
+        <v>0.12212439647999999</v>
       </c>
       <c r="L6" s="9">
-        <v>0.33923443469999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.67846886939999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8">
         <v>0.02</v>
       </c>
       <c r="C7" s="6">
-        <v>216.79</v>
+        <v>433.58</v>
       </c>
       <c r="D7" s="7">
-        <v>9.0299999999999998E-3</v>
+        <v>1.806E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>4.8778756040000003E-2</v>
+        <v>9.7557512080000006E-2</v>
       </c>
       <c r="F7" s="9">
-        <v>6.5038341380000003E-2</v>
+        <v>0.13007668276000001</v>
       </c>
       <c r="G7" s="9">
-        <v>1.6259585350000001</v>
+        <v>3.2519170700000002</v>
       </c>
       <c r="H7" s="9">
-        <v>0.43358894250000002</v>
+        <v>0.86717788500000004</v>
       </c>
       <c r="I7" s="9">
-        <v>10.839723559999999</v>
+        <v>21.679447119999999</v>
       </c>
       <c r="J7" s="9">
-        <v>2.1679447130000001E-2</v>
+        <v>4.3358894260000003E-2</v>
       </c>
       <c r="K7" s="9">
-        <v>6.5038341380000003E-2</v>
+        <v>0.13007668276000001</v>
       </c>
       <c r="L7" s="9">
-        <v>0.36132411879999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.72264823759999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <v>0.03</v>
       </c>
       <c r="C8" s="6">
-        <v>236.68</v>
+        <v>473.36</v>
       </c>
       <c r="D8" s="7">
-        <v>9.8600000000000007E-3</v>
+        <v>1.9720000000000001E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>5.3251917070000002E-2</v>
+        <v>0.10650383414</v>
       </c>
       <c r="F8" s="9">
-        <v>7.1002556090000002E-2</v>
+        <v>0.14200511218</v>
       </c>
       <c r="G8" s="9">
-        <v>1.7750639020000001</v>
+        <v>3.5501278040000002</v>
       </c>
       <c r="H8" s="9">
-        <v>0.47335037390000001</v>
+        <v>0.94670074780000002</v>
       </c>
       <c r="I8" s="9">
-        <v>11.833759349999999</v>
+        <v>23.667518699999999</v>
       </c>
       <c r="J8" s="9">
-        <v>2.3667518700000001E-2</v>
+        <v>4.7335037400000002E-2</v>
       </c>
       <c r="K8" s="9">
-        <v>7.1002556090000002E-2</v>
+        <v>0.14200511218</v>
       </c>
       <c r="L8" s="9">
-        <v>0.394458645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.78891728999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>0.03</v>
       </c>
       <c r="C9" s="6">
-        <v>232.79</v>
+        <v>465.58</v>
       </c>
       <c r="D9" s="7">
-        <v>9.7000000000000003E-3</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="E9" s="8">
-        <v>5.2378585630000002E-2</v>
+        <v>0.10475717126</v>
       </c>
       <c r="F9" s="9">
-        <v>6.9838114170000007E-2</v>
+        <v>0.13967622834000001</v>
       </c>
       <c r="G9" s="9">
-        <v>1.745952854</v>
+        <v>3.491905708</v>
       </c>
       <c r="H9" s="9">
-        <v>0.46558742780000001</v>
+        <v>0.93117485560000002</v>
       </c>
       <c r="I9" s="9">
-        <v>11.639685699999999</v>
+        <v>23.279371399999999</v>
       </c>
       <c r="J9" s="9">
-        <v>2.3279371390000001E-2</v>
+        <v>4.6558742780000002E-2</v>
       </c>
       <c r="K9" s="9">
-        <v>6.9838114170000007E-2</v>
+        <v>0.13967622834000001</v>
       </c>
       <c r="L9" s="9">
-        <v>0.38798952320000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.77597904640000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8">
         <v>0.04</v>
       </c>
       <c r="C10" s="6">
-        <v>378.68</v>
+        <v>757.36</v>
       </c>
       <c r="D10" s="7">
-        <v>1.5779999999999999E-2</v>
+        <v>3.1559999999999998E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>8.5203067310000005E-2</v>
+        <v>0.17040613462000001</v>
       </c>
       <c r="F10" s="9">
-        <v>0.11360408969999999</v>
+        <v>0.22720817939999999</v>
       </c>
       <c r="G10" s="9">
-        <v>2.8401022440000001</v>
+        <v>5.6802044880000002</v>
       </c>
       <c r="H10" s="9">
-        <v>0.75736059830000002</v>
+        <v>1.5147211966</v>
       </c>
       <c r="I10" s="9">
-        <v>18.934014959999999</v>
+        <v>37.868029919999998</v>
       </c>
       <c r="J10" s="9">
-        <v>3.7868029919999997E-2</v>
+        <v>7.5736059839999995E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>0.11360408969999999</v>
+        <v>0.22720817939999999</v>
       </c>
       <c r="L10" s="9">
-        <v>0.63113383190000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.2622676638000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8">
         <v>0.03</v>
       </c>
       <c r="C11" s="6">
-        <v>283.82</v>
+        <v>567.64</v>
       </c>
       <c r="D11" s="7">
-        <v>1.183E-2</v>
+        <v>2.366E-2</v>
       </c>
       <c r="E11" s="8">
-        <v>6.3859698950000002E-2</v>
+        <v>0.1277193979</v>
       </c>
       <c r="F11" s="9">
-        <v>8.5146265269999993E-2</v>
+        <v>0.17029253053999999</v>
       </c>
       <c r="G11" s="9">
-        <v>2.1286566320000002</v>
+        <v>4.2573132640000004</v>
       </c>
       <c r="H11" s="9">
-        <v>0.56764176840000002</v>
+        <v>1.1352835368</v>
       </c>
       <c r="I11" s="9">
-        <v>14.191044209999999</v>
+        <v>28.382088419999999</v>
       </c>
       <c r="J11" s="9">
-        <v>2.838208842E-2</v>
+        <v>5.676417684E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>8.5146265269999993E-2</v>
+        <v>0.17029253053999999</v>
       </c>
       <c r="L11" s="9">
-        <v>0.473034807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.946069614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="20">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="D12" s="9">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="9">
-        <v>2.0249999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="F12" s="9">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="G12" s="9">
-        <v>67.5</v>
+        <v>135</v>
       </c>
       <c r="H12" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="J12" s="9">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="K12" s="9">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="L12" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2024,463 +2029,463 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="40.9" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
       </c>
       <c r="C2" s="6">
-        <v>103.51</v>
+        <v>207.02</v>
       </c>
       <c r="D2" s="7">
-        <v>4.3127478519999997E-3</v>
+        <v>8.6254957039999993E-3</v>
       </c>
       <c r="E2" s="8">
-        <v>2.3288838400000001E-2</v>
+        <v>4.6577676800000002E-2</v>
       </c>
       <c r="F2" s="9">
-        <v>3.1051784530000001E-2</v>
+        <v>6.2103569060000002E-2</v>
       </c>
       <c r="G2" s="9">
-        <v>0.77629461330000005</v>
+        <v>1.5525892266000001</v>
       </c>
       <c r="H2" s="9">
-        <v>0.20701189689999999</v>
+        <v>0.41402379379999998</v>
       </c>
       <c r="I2" s="9">
-        <v>5.1752974219999999</v>
+        <v>10.350594844</v>
       </c>
       <c r="J2" s="9">
-        <v>1.035059484E-2</v>
+        <v>2.0701189679999999E-2</v>
       </c>
       <c r="K2" s="9">
-        <v>3.1051784530000001E-2</v>
+        <v>6.2103569060000002E-2</v>
       </c>
       <c r="L2" s="9">
-        <v>0.17250991409999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.34501982819999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
       </c>
       <c r="C3" s="10">
-        <v>2240.5300000000002</v>
+        <v>4481.0600000000004</v>
       </c>
       <c r="D3" s="7">
-        <v>9.3355212640000004E-2</v>
+        <v>0.18671042528000001</v>
       </c>
       <c r="E3" s="8">
-        <v>0.50411814830000001</v>
+        <v>1.0082362966</v>
       </c>
       <c r="F3" s="9">
-        <v>0.67215753099999997</v>
+        <v>1.3443150619999999</v>
       </c>
       <c r="G3" s="9">
-        <v>16.803938280000001</v>
+        <v>33.607876560000001</v>
       </c>
       <c r="H3" s="9">
-        <v>4.481050207</v>
+        <v>8.962100414</v>
       </c>
       <c r="I3" s="9">
-        <v>112.02625519999999</v>
+        <v>224.05251039999999</v>
       </c>
       <c r="J3" s="9">
-        <v>0.22405251030000001</v>
+        <v>0.44810502060000001</v>
       </c>
       <c r="K3" s="9">
-        <v>0.67215753099999997</v>
+        <v>1.3443150619999999</v>
       </c>
       <c r="L3" s="9">
-        <v>3.7342085059999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.4684170119999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D4" s="7">
-        <v>3.2082636459999998E-3</v>
+        <v>6.4165272919999997E-3</v>
       </c>
       <c r="E4" s="8">
-        <v>1.7324623689999999E-2</v>
+        <v>3.4649247379999998E-2</v>
       </c>
       <c r="F4" s="9">
-        <v>2.3099498249999999E-2</v>
+        <v>4.6198996499999999E-2</v>
       </c>
       <c r="G4" s="9">
-        <v>0.57748745619999997</v>
+        <v>1.1549749123999999</v>
       </c>
       <c r="H4" s="9">
-        <v>0.15399665500000001</v>
+        <v>0.30799331000000002</v>
       </c>
       <c r="I4" s="9">
-        <v>3.8499163749999998</v>
+        <v>7.6998327499999997</v>
       </c>
       <c r="J4" s="9">
-        <v>7.6998327499999998E-3</v>
+        <v>1.53996655E-2</v>
       </c>
       <c r="K4" s="9">
-        <v>2.3099498249999999E-2</v>
+        <v>4.6198996499999999E-2</v>
       </c>
       <c r="L4" s="9">
-        <v>0.1283305458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.2566610916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
       </c>
       <c r="C5" s="6">
-        <v>61.54</v>
+        <v>123.08</v>
       </c>
       <c r="D5" s="7">
-        <v>2.563981192E-3</v>
+        <v>5.127962384E-3</v>
       </c>
       <c r="E5" s="8">
-        <v>1.3845498439999999E-2</v>
+        <v>2.7690996879999999E-2</v>
       </c>
       <c r="F5" s="9">
-        <v>1.8460664580000001E-2</v>
+        <v>3.6921329160000002E-2</v>
       </c>
       <c r="G5" s="9">
-        <v>0.46151661459999999</v>
+        <v>0.92303322919999997</v>
       </c>
       <c r="H5" s="9">
-        <v>0.12307109719999999</v>
+        <v>0.24614219439999999</v>
       </c>
       <c r="I5" s="9">
-        <v>3.076777431</v>
+        <v>6.153554862</v>
       </c>
       <c r="J5" s="9">
-        <v>6.1535548609999999E-3</v>
+        <v>1.2307109722E-2</v>
       </c>
       <c r="K5" s="9">
-        <v>1.8460664580000001E-2</v>
+        <v>3.6921329160000002E-2</v>
       </c>
       <c r="L5" s="9">
-        <v>0.10255924769999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.20511849539999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
       </c>
       <c r="C6" s="6">
-        <v>67.849999999999994</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="D6" s="7">
-        <v>2.8269536219999998E-3</v>
+        <v>5.6539072439999996E-3</v>
       </c>
       <c r="E6" s="8">
-        <v>1.5265549559999999E-2</v>
+        <v>3.0531099119999999E-2</v>
       </c>
       <c r="F6" s="9">
-        <v>2.035406608E-2</v>
+        <v>4.070813216E-2</v>
       </c>
       <c r="G6" s="9">
-        <v>0.50885165200000004</v>
+        <v>1.0177033040000001</v>
       </c>
       <c r="H6" s="9">
-        <v>0.13569377390000001</v>
+        <v>0.27138754780000002</v>
       </c>
       <c r="I6" s="9">
-        <v>3.3923443469999999</v>
+        <v>6.7846886939999997</v>
       </c>
       <c r="J6" s="9">
-        <v>6.7846886929999999E-3</v>
+        <v>1.3569377386E-2</v>
       </c>
       <c r="K6" s="9">
-        <v>2.035406608E-2</v>
+        <v>4.070813216E-2</v>
       </c>
       <c r="L6" s="9">
-        <v>0.1130781449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.22615628979999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
       </c>
       <c r="C7" s="6">
-        <v>72.260000000000005</v>
+        <v>144.52000000000001</v>
       </c>
       <c r="D7" s="7">
-        <v>3.0110343230000001E-3</v>
+        <v>6.0220686460000002E-3</v>
       </c>
       <c r="E7" s="8">
-        <v>1.6259585350000001E-2</v>
+        <v>3.2519170700000002E-2</v>
       </c>
       <c r="F7" s="9">
-        <v>2.1679447130000001E-2</v>
+        <v>4.3358894260000003E-2</v>
       </c>
       <c r="G7" s="9">
-        <v>0.54198617819999995</v>
+        <v>1.0839723563999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.1445296475</v>
+        <v>0.28905929499999999</v>
       </c>
       <c r="I7" s="9">
-        <v>3.6132411879999999</v>
+        <v>7.2264823759999999</v>
       </c>
       <c r="J7" s="9">
-        <v>7.2264823759999996E-3</v>
+        <v>1.4452964751999999E-2</v>
       </c>
       <c r="K7" s="9">
-        <v>2.1679447130000001E-2</v>
+        <v>4.3358894260000003E-2</v>
       </c>
       <c r="L7" s="9">
-        <v>0.1204413729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.24088274579999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
       </c>
       <c r="C8" s="6">
-        <v>78.89</v>
+        <v>157.78</v>
       </c>
       <c r="D8" s="7">
-        <v>3.2871553750000002E-3</v>
+        <v>6.5743107500000003E-3</v>
       </c>
       <c r="E8" s="8">
-        <v>1.775063902E-2</v>
+        <v>3.5501278040000001E-2</v>
       </c>
       <c r="F8" s="9">
-        <v>2.3667518700000001E-2</v>
+        <v>4.7335037400000002E-2</v>
       </c>
       <c r="G8" s="9">
-        <v>0.59168796739999996</v>
+        <v>1.1833759347999999</v>
       </c>
       <c r="H8" s="9">
-        <v>0.15778345799999999</v>
+        <v>0.31556691599999998</v>
       </c>
       <c r="I8" s="9">
-        <v>3.9445864500000001</v>
+        <v>7.8891729000000002</v>
       </c>
       <c r="J8" s="9">
-        <v>7.8891728989999993E-3</v>
+        <v>1.5778345797999999E-2</v>
       </c>
       <c r="K8" s="9">
-        <v>2.3667518700000001E-2</v>
+        <v>4.7335037400000002E-2</v>
       </c>
       <c r="L8" s="9">
-        <v>0.13148621499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26297242999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
       </c>
       <c r="C9" s="6">
-        <v>77.599999999999994</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="D9" s="7">
-        <v>3.2332460259999998E-3</v>
+        <v>6.4664920519999997E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>1.7459528540000002E-2</v>
+        <v>3.4919057080000003E-2</v>
       </c>
       <c r="F9" s="9">
-        <v>2.3279371390000001E-2</v>
+        <v>4.6558742780000002E-2</v>
       </c>
       <c r="G9" s="9">
-        <v>0.58198428479999997</v>
+        <v>1.1639685695999999</v>
       </c>
       <c r="H9" s="9">
-        <v>0.15519580929999999</v>
+        <v>0.31039161859999997</v>
       </c>
       <c r="I9" s="9">
-        <v>3.879895232</v>
+        <v>7.7597904639999999</v>
       </c>
       <c r="J9" s="9">
-        <v>7.7597904639999998E-3</v>
+        <v>1.5519580928E-2</v>
       </c>
       <c r="K9" s="9">
-        <v>2.3279371390000001E-2</v>
+        <v>4.6558742780000002E-2</v>
       </c>
       <c r="L9" s="9">
-        <v>0.12932984110000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.25865968220000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
       </c>
       <c r="C10" s="6">
-        <v>126.23</v>
+        <v>252.46</v>
       </c>
       <c r="D10" s="7">
-        <v>5.2594485989999997E-3</v>
+        <v>1.0518897197999999E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>2.840102244E-2</v>
+        <v>5.6802044879999999E-2</v>
       </c>
       <c r="F10" s="9">
-        <v>3.7868029919999997E-2</v>
+        <v>7.5736059839999995E-2</v>
       </c>
       <c r="G10" s="9">
-        <v>0.94670074790000003</v>
+        <v>1.8934014958000001</v>
       </c>
       <c r="H10" s="9">
-        <v>0.25245353279999999</v>
+        <v>0.50490706559999998</v>
       </c>
       <c r="I10" s="9">
-        <v>6.3113383189999999</v>
+        <v>12.622676638</v>
       </c>
       <c r="J10" s="9">
-        <v>1.262267664E-2</v>
+        <v>2.5245353280000001E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>3.7868029919999997E-2</v>
+        <v>7.5736059839999995E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>0.21037794400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.42075588800000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>
       </c>
       <c r="C11" s="6">
-        <v>94.61</v>
+        <v>189.22</v>
       </c>
       <c r="D11" s="7">
-        <v>3.9419567250000001E-3</v>
+        <v>7.8839134500000001E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>2.1286566319999999E-2</v>
+        <v>4.2573132639999997E-2</v>
       </c>
       <c r="F11" s="9">
-        <v>2.838208842E-2</v>
+        <v>5.676417684E-2</v>
       </c>
       <c r="G11" s="9">
-        <v>0.70955221049999995</v>
+        <v>1.4191044209999999</v>
       </c>
       <c r="H11" s="9">
-        <v>0.18921392279999999</v>
+        <v>0.37842784559999998</v>
       </c>
       <c r="I11" s="9">
-        <v>4.7303480699999998</v>
+        <v>9.4606961399999996</v>
       </c>
       <c r="J11" s="9">
-        <v>9.4606961409999992E-3</v>
+        <v>1.8921392281999998E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>2.838208842E-2</v>
+        <v>5.676417684E-2</v>
       </c>
       <c r="L11" s="9">
-        <v>0.15767826900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.31535653800000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="20">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="9">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="9">
-        <v>0.67500000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="F12" s="9">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G12" s="9">
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J12" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K12" s="9">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="L12" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2493,466 +2498,466 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="40.9" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
       </c>
       <c r="C2" s="6">
-        <v>103.51</v>
+        <v>207.02</v>
       </c>
       <c r="D2" s="7">
-        <v>4.3127478519999997E-3</v>
+        <v>8.6254957039999993E-3</v>
       </c>
       <c r="E2" s="8">
-        <v>2.3288838400000001E-2</v>
+        <v>4.6577676800000002E-2</v>
       </c>
       <c r="F2" s="9">
-        <v>3.1051784530000001E-2</v>
+        <v>6.2103569060000002E-2</v>
       </c>
       <c r="G2" s="9">
-        <v>0.77629461330000005</v>
+        <v>1.5525892266000001</v>
       </c>
       <c r="H2" s="9">
-        <v>0.20701189689999999</v>
+        <v>0.41402379379999998</v>
       </c>
       <c r="I2" s="9">
-        <v>5.1752974219999999</v>
+        <v>10.350594844</v>
       </c>
       <c r="J2" s="9">
-        <v>1.035059484E-2</v>
+        <v>2.0701189679999999E-2</v>
       </c>
       <c r="K2" s="9">
-        <v>3.1051784530000001E-2</v>
+        <v>6.2103569060000002E-2</v>
       </c>
       <c r="L2" s="9">
-        <v>0.17250991409999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.34501982819999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
       </c>
       <c r="C3" s="10">
-        <v>2240.5300000000002</v>
+        <v>4481.0600000000004</v>
       </c>
       <c r="D3" s="7">
-        <v>9.3355212640000004E-2</v>
+        <v>0.18671042528000001</v>
       </c>
       <c r="E3" s="8">
-        <v>0.50411814830000001</v>
+        <v>1.0082362966</v>
       </c>
       <c r="F3" s="9">
-        <v>0.67215753099999997</v>
+        <v>1.3443150619999999</v>
       </c>
       <c r="G3" s="9">
-        <v>16.803938280000001</v>
+        <v>33.607876560000001</v>
       </c>
       <c r="H3" s="9">
-        <v>4.481050207</v>
+        <v>8.962100414</v>
       </c>
       <c r="I3" s="9">
-        <v>112.02625519999999</v>
+        <v>224.05251039999999</v>
       </c>
       <c r="J3" s="9">
-        <v>0.22405251030000001</v>
+        <v>0.44810502060000001</v>
       </c>
       <c r="K3" s="9">
-        <v>0.67215753099999997</v>
+        <v>1.3443150619999999</v>
       </c>
       <c r="L3" s="9">
-        <v>3.7342085059999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.4684170119999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D4" s="7">
-        <v>3.2082636459999998E-3</v>
+        <v>6.4165272919999997E-3</v>
       </c>
       <c r="E4" s="8">
-        <v>1.7324623689999999E-2</v>
+        <v>3.4649247379999998E-2</v>
       </c>
       <c r="F4" s="9">
-        <v>2.3099498249999999E-2</v>
+        <v>4.6198996499999999E-2</v>
       </c>
       <c r="G4" s="9">
-        <v>0.57748745619999997</v>
+        <v>1.1549749123999999</v>
       </c>
       <c r="H4" s="9">
-        <v>0.15399665500000001</v>
+        <v>0.30799331000000002</v>
       </c>
       <c r="I4" s="9">
-        <v>3.8499163749999998</v>
+        <v>7.6998327499999997</v>
       </c>
       <c r="J4" s="9">
-        <v>7.6998327499999998E-3</v>
+        <v>1.53996655E-2</v>
       </c>
       <c r="K4" s="9">
-        <v>2.3099498249999999E-2</v>
+        <v>4.6198996499999999E-2</v>
       </c>
       <c r="L4" s="9">
-        <v>0.1283305458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.2566610916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
       </c>
       <c r="C5" s="6">
-        <v>61.54</v>
+        <v>123.08</v>
       </c>
       <c r="D5" s="7">
-        <v>2.563981192E-3</v>
+        <v>5.127962384E-3</v>
       </c>
       <c r="E5" s="8">
-        <v>1.3845498439999999E-2</v>
+        <v>2.7690996879999999E-2</v>
       </c>
       <c r="F5" s="9">
-        <v>1.8460664580000001E-2</v>
+        <v>3.6921329160000002E-2</v>
       </c>
       <c r="G5" s="9">
-        <v>0.46151661459999999</v>
+        <v>0.92303322919999997</v>
       </c>
       <c r="H5" s="9">
-        <v>0.12307109719999999</v>
+        <v>0.24614219439999999</v>
       </c>
       <c r="I5" s="9">
-        <v>3.076777431</v>
+        <v>6.153554862</v>
       </c>
       <c r="J5" s="9">
-        <v>6.1535548609999999E-3</v>
+        <v>1.2307109722E-2</v>
       </c>
       <c r="K5" s="9">
-        <v>1.8460664580000001E-2</v>
+        <v>3.6921329160000002E-2</v>
       </c>
       <c r="L5" s="9">
-        <v>0.10255924769999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.20511849539999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
       </c>
       <c r="C6" s="6">
-        <v>67.849999999999994</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="D6" s="7">
-        <v>2.8269536219999998E-3</v>
+        <v>5.6539072439999996E-3</v>
       </c>
       <c r="E6" s="8">
-        <v>1.5265549559999999E-2</v>
+        <v>3.0531099119999999E-2</v>
       </c>
       <c r="F6" s="9">
-        <v>2.035406608E-2</v>
+        <v>4.070813216E-2</v>
       </c>
       <c r="G6" s="9">
-        <v>0.50885165200000004</v>
+        <v>1.0177033040000001</v>
       </c>
       <c r="H6" s="9">
-        <v>0.13569377390000001</v>
+        <v>0.27138754780000002</v>
       </c>
       <c r="I6" s="9">
-        <v>3.3923443469999999</v>
+        <v>6.7846886939999997</v>
       </c>
       <c r="J6" s="9">
-        <v>6.7846886929999999E-3</v>
+        <v>1.3569377386E-2</v>
       </c>
       <c r="K6" s="9">
-        <v>2.035406608E-2</v>
+        <v>4.070813216E-2</v>
       </c>
       <c r="L6" s="9">
-        <v>0.1130781449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.22615628979999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
       </c>
       <c r="C7" s="6">
-        <v>72.260000000000005</v>
+        <v>144.52000000000001</v>
       </c>
       <c r="D7" s="7">
-        <v>3.0110343230000001E-3</v>
+        <v>6.0220686460000002E-3</v>
       </c>
       <c r="E7" s="8">
-        <v>1.6259585350000001E-2</v>
+        <v>3.2519170700000002E-2</v>
       </c>
       <c r="F7" s="9">
-        <v>2.1679447130000001E-2</v>
+        <v>4.3358894260000003E-2</v>
       </c>
       <c r="G7" s="9">
-        <v>0.54198617819999995</v>
+        <v>1.0839723563999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.1445296475</v>
+        <v>0.28905929499999999</v>
       </c>
       <c r="I7" s="9">
-        <v>3.6132411879999999</v>
+        <v>7.2264823759999999</v>
       </c>
       <c r="J7" s="9">
-        <v>7.2264823759999996E-3</v>
+        <v>1.4452964751999999E-2</v>
       </c>
       <c r="K7" s="9">
-        <v>2.1679447130000001E-2</v>
+        <v>4.3358894260000003E-2</v>
       </c>
       <c r="L7" s="9">
-        <v>0.1204413729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.24088274579999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
       </c>
       <c r="C8" s="6">
-        <v>78.89</v>
+        <v>157.78</v>
       </c>
       <c r="D8" s="7">
-        <v>3.2871553750000002E-3</v>
+        <v>6.5743107500000003E-3</v>
       </c>
       <c r="E8" s="8">
-        <v>1.775063902E-2</v>
+        <v>3.5501278040000001E-2</v>
       </c>
       <c r="F8" s="9">
-        <v>2.3667518700000001E-2</v>
+        <v>4.7335037400000002E-2</v>
       </c>
       <c r="G8" s="9">
-        <v>0.59168796739999996</v>
+        <v>1.1833759347999999</v>
       </c>
       <c r="H8" s="9">
-        <v>0.15778345799999999</v>
+        <v>0.31556691599999998</v>
       </c>
       <c r="I8" s="9">
-        <v>3.9445864500000001</v>
+        <v>7.8891729000000002</v>
       </c>
       <c r="J8" s="9">
-        <v>7.8891728989999993E-3</v>
+        <v>1.5778345797999999E-2</v>
       </c>
       <c r="K8" s="9">
-        <v>2.3667518700000001E-2</v>
+        <v>4.7335037400000002E-2</v>
       </c>
       <c r="L8" s="9">
-        <v>0.13148621499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26297242999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
       </c>
       <c r="C9" s="6">
-        <v>77.599999999999994</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="D9" s="7">
-        <v>3.2332460259999998E-3</v>
+        <v>6.4664920519999997E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>1.7459528540000002E-2</v>
+        <v>3.4919057080000003E-2</v>
       </c>
       <c r="F9" s="9">
-        <v>2.3279371390000001E-2</v>
+        <v>4.6558742780000002E-2</v>
       </c>
       <c r="G9" s="9">
-        <v>0.58198428479999997</v>
+        <v>1.1639685695999999</v>
       </c>
       <c r="H9" s="9">
-        <v>0.15519580929999999</v>
+        <v>0.31039161859999997</v>
       </c>
       <c r="I9" s="9">
-        <v>3.879895232</v>
+        <v>7.7597904639999999</v>
       </c>
       <c r="J9" s="9">
-        <v>7.7597904639999998E-3</v>
+        <v>1.5519580928E-2</v>
       </c>
       <c r="K9" s="9">
-        <v>2.3279371390000001E-2</v>
+        <v>4.6558742780000002E-2</v>
       </c>
       <c r="L9" s="9">
-        <v>0.12932984110000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.25865968220000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
       </c>
       <c r="C10" s="6">
-        <v>126.23</v>
+        <v>252.46</v>
       </c>
       <c r="D10" s="7">
-        <v>5.2594485989999997E-3</v>
+        <v>1.0518897197999999E-2</v>
       </c>
       <c r="E10" s="8">
-        <v>2.840102244E-2</v>
+        <v>5.6802044879999999E-2</v>
       </c>
       <c r="F10" s="9">
-        <v>3.7868029919999997E-2</v>
+        <v>7.5736059839999995E-2</v>
       </c>
       <c r="G10" s="9">
-        <v>0.94670074790000003</v>
+        <v>1.8934014958000001</v>
       </c>
       <c r="H10" s="9">
-        <v>0.25245353279999999</v>
+        <v>0.50490706559999998</v>
       </c>
       <c r="I10" s="9">
-        <v>6.3113383189999999</v>
+        <v>12.622676638</v>
       </c>
       <c r="J10" s="9">
-        <v>1.262267664E-2</v>
+        <v>2.5245353280000001E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>3.7868029919999997E-2</v>
+        <v>7.5736059839999995E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>0.21037794400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.42075588800000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>
       </c>
       <c r="C11" s="6">
-        <v>94.61</v>
+        <v>189.22</v>
       </c>
       <c r="D11" s="7">
-        <v>3.9419567250000001E-3</v>
+        <v>7.8839134500000001E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>2.1286566319999999E-2</v>
+        <v>4.2573132639999997E-2</v>
       </c>
       <c r="F11" s="9">
-        <v>2.838208842E-2</v>
+        <v>5.676417684E-2</v>
       </c>
       <c r="G11" s="9">
-        <v>0.70955221049999995</v>
+        <v>1.4191044209999999</v>
       </c>
       <c r="H11" s="9">
-        <v>0.18921392279999999</v>
+        <v>0.37842784559999998</v>
       </c>
       <c r="I11" s="9">
-        <v>4.7303480699999998</v>
+        <v>9.4606961399999996</v>
       </c>
       <c r="J11" s="9">
-        <v>9.4606961409999992E-3</v>
+        <v>1.8921392281999998E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>2.838208842E-2</v>
+        <v>5.676417684E-2</v>
       </c>
       <c r="L11" s="9">
-        <v>0.15767826900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.31535653800000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="20">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="9">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="9">
-        <v>0.67500000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="F12" s="9">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G12" s="9">
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J12" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K12" s="9">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="L12" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2964,53 +2969,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D45211-272E-4096-A558-EC5CCC34DB2A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="40.9" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9">
         <v>0.03</v>
@@ -3046,9 +3051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9">
         <v>0.75</v>
@@ -3084,9 +3089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>0.03</v>
@@ -3122,9 +3127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>0.02</v>
@@ -3160,9 +3165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9">
         <v>0.02</v>
@@ -3198,9 +3203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>0.02</v>
@@ -3236,9 +3241,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>0.03</v>
@@ -3274,9 +3279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>0.03</v>
@@ -3312,9 +3317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>0.04</v>
@@ -3350,9 +3355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
         <v>0.03</v>
@@ -3388,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="9">
         <v>1</v>

--- a/datos/donaciones.xlsx
+++ b/datos/donaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{616E89BB-3106-43B5-BEAD-3940610112C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67836E1-8C08-43D3-8A54-9CAEB0E2F3A3}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{616E89BB-3106-43B5-BEAD-3940610112C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6429C7D1-47F1-48EE-8592-311CD7B73539}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -189,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,11 +263,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -281,23 +347,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,31 +368,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,469 +697,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="40.9" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:14" ht="35.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>0.03</v>
       </c>
-      <c r="C2" s="22">
-        <v>1863.12</v>
-      </c>
-      <c r="D2" s="16">
-        <v>8.6254957039999997E-2</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.46577676800000001</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.62103569059999997</v>
-      </c>
-      <c r="G2" s="17">
-        <v>15.525892266</v>
-      </c>
-      <c r="H2" s="17">
-        <v>4.1402379380000003</v>
-      </c>
-      <c r="I2" s="17">
-        <v>103.50594844</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0.20701189680000001</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0.62103569059999997</v>
-      </c>
-      <c r="L2" s="18">
-        <v>3.4501982820000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="C2" s="27">
+        <v>2016.1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="28">
+        <v>15.12</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4.03</v>
+      </c>
+      <c r="I2" s="28">
+        <v>100.8</v>
+      </c>
+      <c r="J2" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="28">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>0.75</v>
       </c>
-      <c r="C3" s="23">
-        <v>40329.46</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1.8671042527999999</v>
-      </c>
-      <c r="E3" s="16">
-        <v>10.082362966</v>
-      </c>
-      <c r="F3" s="17">
-        <v>13.443150620000001</v>
-      </c>
-      <c r="G3" s="17">
-        <v>336.0787656</v>
-      </c>
-      <c r="H3" s="17">
-        <v>89.621004139999997</v>
-      </c>
-      <c r="I3" s="17">
-        <v>2240.5251039999998</v>
-      </c>
-      <c r="J3" s="17">
-        <v>4.4810502059999999</v>
-      </c>
-      <c r="K3" s="17">
-        <v>13.443150620000001</v>
-      </c>
-      <c r="L3" s="18">
-        <v>74.684170120000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="C3" s="29">
+        <v>44848.4</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1.87</v>
+      </c>
+      <c r="E3" s="25">
+        <v>10.09</v>
+      </c>
+      <c r="F3" s="25">
+        <v>13.45</v>
+      </c>
+      <c r="G3" s="25">
+        <v>336.36</v>
+      </c>
+      <c r="H3" s="25">
+        <v>89.7</v>
+      </c>
+      <c r="I3" s="30">
+        <v>2242.42</v>
+      </c>
+      <c r="J3" s="25">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K3" s="25">
+        <v>13.45</v>
+      </c>
+      <c r="L3" s="25">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>0.03</v>
       </c>
-      <c r="C4" s="22">
-        <v>1385.98</v>
-      </c>
-      <c r="D4" s="16">
-        <v>6.4165272920000002E-2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.34649247379999998</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.461989965</v>
-      </c>
-      <c r="G4" s="17">
-        <v>11.549749124</v>
-      </c>
-      <c r="H4" s="17">
-        <v>3.0799330999999999</v>
-      </c>
-      <c r="I4" s="17">
-        <v>76.998327500000002</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.15399665500000001</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0.461989965</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2.5666109160000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="C4" s="29">
+        <v>1591.97</v>
+      </c>
+      <c r="D4" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="G4" s="25">
+        <v>11.94</v>
+      </c>
+      <c r="H4" s="25">
+        <v>3.18</v>
+      </c>
+      <c r="I4" s="25">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="L4" s="25">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>0.02</v>
       </c>
-      <c r="C5" s="22">
-        <v>1107.6400000000001</v>
-      </c>
-      <c r="D5" s="16">
-        <v>5.1279623840000003E-2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.27690996880000002</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.36921329159999999</v>
-      </c>
-      <c r="G5" s="17">
-        <v>9.2303322919999999</v>
-      </c>
-      <c r="H5" s="17">
-        <v>2.461421944</v>
-      </c>
-      <c r="I5" s="17">
-        <v>61.53554862</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.12307109721999999</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0.36921329159999999</v>
-      </c>
-      <c r="L5" s="18">
-        <v>2.051184954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="C5" s="29">
+        <v>1224.57</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="G5" s="25">
+        <v>9.18</v>
+      </c>
+      <c r="H5" s="25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I5" s="25">
+        <v>61.23</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>0.02</v>
       </c>
-      <c r="C6" s="22">
-        <v>1221.26</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5.6539072439999997E-2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.30531099119999999</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0.40708132159999999</v>
-      </c>
-      <c r="G6" s="17">
-        <v>10.17703304</v>
-      </c>
-      <c r="H6" s="17">
-        <v>2.7138754779999998</v>
-      </c>
-      <c r="I6" s="17">
-        <v>67.846886940000005</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.13569377386000001</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0.40708132159999999</v>
-      </c>
-      <c r="L6" s="18">
-        <v>2.2615628980000002</v>
-      </c>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="29">
+        <v>1325.55</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="25">
+        <v>9.94</v>
+      </c>
+      <c r="H6" s="25">
+        <v>2.65</v>
+      </c>
+      <c r="I6" s="25">
+        <v>66.28</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="25">
+        <v>2.21</v>
+      </c>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>0.02</v>
       </c>
-      <c r="C7" s="22">
-        <v>1300.76</v>
-      </c>
-      <c r="D7" s="16">
-        <v>6.0220686459999999E-2</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.325191707</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.43358894260000003</v>
-      </c>
-      <c r="G7" s="17">
-        <v>10.839723564</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2.8905929499999998</v>
-      </c>
-      <c r="I7" s="17">
-        <v>72.264823759999999</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.14452964752</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0.43358894260000003</v>
-      </c>
-      <c r="L7" s="18">
-        <v>2.4088274580000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="C7" s="29">
+        <v>1396.24</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.31</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="G7" s="25">
+        <v>10.47</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2.79</v>
+      </c>
+      <c r="I7" s="25">
+        <v>69.81</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>0.03</v>
       </c>
-      <c r="C8" s="22">
-        <v>1420.04</v>
-      </c>
-      <c r="D8" s="16">
-        <v>6.5743107499999995E-2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.35501278040000001</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0.47335037400000002</v>
-      </c>
-      <c r="G8" s="17">
-        <v>11.833759347999999</v>
-      </c>
-      <c r="H8" s="17">
-        <v>3.15566916</v>
-      </c>
-      <c r="I8" s="17">
-        <v>78.891728999999998</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.15778345798000001</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0.47335037400000002</v>
-      </c>
-      <c r="L8" s="18">
-        <v>2.6297242999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="C8" s="29">
+        <v>1622.27</v>
+      </c>
+      <c r="D8" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="25">
+        <v>12.17</v>
+      </c>
+      <c r="H8" s="25">
+        <v>3.24</v>
+      </c>
+      <c r="I8" s="25">
+        <v>81.11</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="L8" s="25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>0.03</v>
       </c>
-      <c r="C9" s="22">
-        <v>1396.76</v>
-      </c>
-      <c r="D9" s="16">
-        <v>6.4664920520000002E-2</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.34919057079999999</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.46558742780000001</v>
-      </c>
-      <c r="G9" s="17">
-        <v>11.639685696000001</v>
-      </c>
-      <c r="H9" s="17">
-        <v>3.1039161860000002</v>
-      </c>
-      <c r="I9" s="17">
-        <v>77.597904639999996</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.15519580928000001</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.46558742780000001</v>
-      </c>
-      <c r="L9" s="18">
-        <v>2.5865968220000002</v>
+      <c r="C9" s="29">
+        <v>1601.57</v>
+      </c>
+      <c r="D9" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="G9" s="25">
+        <v>12.01</v>
+      </c>
+      <c r="H9" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>80.08</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2.67</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>0.04</v>
       </c>
-      <c r="C10" s="23">
-        <v>2272.08</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.10518897198</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.56802044880000002</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.75736059840000003</v>
-      </c>
-      <c r="G10" s="17">
-        <v>18.934014957999999</v>
-      </c>
-      <c r="H10" s="17">
-        <v>5.0490706559999996</v>
-      </c>
-      <c r="I10" s="17">
-        <v>126.22676638</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.25245353279999999</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0.75736059840000003</v>
-      </c>
-      <c r="L10" s="18">
-        <v>4.2075588799999997</v>
+      <c r="C10" s="29">
+        <v>2499.63</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="25">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="25">
+        <v>5</v>
+      </c>
+      <c r="I10" s="25">
+        <v>124.98</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="25">
+        <v>4.17</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>0.03</v>
       </c>
-      <c r="C11" s="22">
-        <v>1702.94</v>
-      </c>
-      <c r="D11" s="16">
-        <v>7.8839134500000005E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.4257313264</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0.56764176840000002</v>
-      </c>
-      <c r="G11" s="17">
-        <v>14.191044209999999</v>
-      </c>
-      <c r="H11" s="17">
-        <v>3.784278456</v>
-      </c>
-      <c r="I11" s="17">
-        <v>94.606961400000003</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0.18921392281999999</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0.56764176840000002</v>
-      </c>
-      <c r="L11" s="18">
-        <v>3.1535653799999999</v>
+      <c r="C11" s="29">
+        <v>1873.71</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G11" s="25">
+        <v>14.05</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3.75</v>
+      </c>
+      <c r="I11" s="25">
+        <v>93.69</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L11" s="25">
+        <v>3.12</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14">
         <v>1</v>
       </c>
-      <c r="C12" s="23">
-        <v>54000</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D12" s="25">
         <v>2.5</v>
       </c>
-      <c r="E12" s="14">
-        <v>13.500000001199998</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="E12" s="25">
+        <v>13.5</v>
+      </c>
+      <c r="F12" s="25">
         <v>18</v>
       </c>
-      <c r="G12" s="14">
-        <v>450.00000009800004</v>
-      </c>
-      <c r="H12" s="14">
-        <v>120.000000008</v>
-      </c>
-      <c r="I12" s="14">
-        <v>3000.0000006799992</v>
-      </c>
-      <c r="J12" s="14">
-        <v>5.9999999992799999</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="G12" s="25">
+        <v>450</v>
+      </c>
+      <c r="H12" s="25">
+        <v>120</v>
+      </c>
+      <c r="I12" s="30">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="25">
+        <v>6</v>
+      </c>
+      <c r="K12" s="25">
         <v>18</v>
       </c>
-      <c r="L12" s="14">
-        <v>100.00000001000002</v>
-      </c>
-    </row>
+      <c r="L12" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15"/>
+    <row r="14" spans="1:14" ht="15"/>
+    <row r="22" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1087,15 +1171,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B44BBE-0F76-47A7-AB36-05EFDFADEB3D}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.9" thickBot="1">
+    <row r="1" spans="1:16" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1133,423 +1217,425 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>0.03</v>
       </c>
-      <c r="C2" s="6">
-        <v>828.04</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3.4501982819999999E-2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.18631070718000001</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="C2" s="18">
+        <v>828.05</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3.4501982809999998E-2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.18631070720000001</v>
+      </c>
+      <c r="F2" s="20">
         <v>0.24841427620000001</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="20">
         <v>6.2103569060000003</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="20">
         <v>1.6560951749999999</v>
       </c>
-      <c r="I2" s="9">
-        <v>41.402379379999999</v>
-      </c>
-      <c r="J2" s="9">
-        <v>8.2804758739999998E-2</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="I2" s="20">
+        <v>41.402379369999998</v>
+      </c>
+      <c r="J2" s="20">
+        <v>8.2804758749999999E-2</v>
+      </c>
+      <c r="K2" s="20">
         <v>0.24841427620000001</v>
       </c>
-      <c r="L2" s="9">
-        <v>1.3800793123999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="L2" s="20">
+        <v>1.3800793119999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>0.75</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="22">
         <v>17924.2</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.74684170120000004</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="23">
+        <v>0.74684170110000003</v>
+      </c>
+      <c r="E3" s="24">
         <v>4.0329451860000001</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="24">
         <v>5.3772602479999998</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="24">
         <v>134.4315062</v>
       </c>
-      <c r="H3" s="9">
-        <v>35.84840166</v>
-      </c>
-      <c r="I3" s="9">
-        <v>896.21004140000002</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1.7924200826000001</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H3" s="24">
+        <v>35.84840165</v>
+      </c>
+      <c r="I3" s="24">
+        <v>896.21004129999994</v>
+      </c>
+      <c r="J3" s="24">
+        <v>1.7924200830000001</v>
+      </c>
+      <c r="K3" s="24">
         <v>5.3772602479999998</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="24">
         <v>29.873668039999998</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>0.03</v>
       </c>
-      <c r="C4" s="6">
-        <v>615.98</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.5666109159999999E-2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C4" s="21">
+        <v>615.99</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2.566610917E-2</v>
+      </c>
+      <c r="E4" s="24">
         <v>0.13859698949999999</v>
       </c>
-      <c r="F4" s="9">
-        <v>0.18479598597999999</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="24">
+        <v>0.184795986</v>
+      </c>
+      <c r="G4" s="24">
         <v>4.6198996499999998</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="24">
         <v>1.2319732400000001</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="24">
         <v>30.799330999999999</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="24">
         <v>6.1598661999999998E-2</v>
       </c>
-      <c r="K4" s="9">
-        <v>0.18479598597999999</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1.0266443666</v>
-      </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1">
+      <c r="K4" s="24">
+        <v>0.184795986</v>
+      </c>
+      <c r="L4" s="24">
+        <v>1.0266443670000001</v>
+      </c>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>0.02</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="21">
         <v>492.28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="23">
         <v>2.0511849540000002E-2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="24">
         <v>0.11076398749999999</v>
       </c>
-      <c r="F5" s="9">
-        <v>0.14768531668000001</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3.6921329159999998</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="F5" s="24">
+        <v>0.14768531670000001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>3.6921329169999999</v>
+      </c>
+      <c r="H5" s="24">
         <v>0.98456877779999996</v>
       </c>
-      <c r="I5" s="9">
-        <v>24.614219439999999</v>
-      </c>
-      <c r="J5" s="9">
-        <v>4.9228438899999998E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.14768531668000001</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.82047398159999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="I5" s="24">
+        <v>24.61421945</v>
+      </c>
+      <c r="J5" s="24">
+        <v>4.9228438889999997E-2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.14768531670000001</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.82047398149999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>0.02</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="21">
         <v>542.78</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="23">
         <v>2.261562898E-2</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.12212439647999999</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.16283252864</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="24">
+        <v>0.1221243965</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.1628325286</v>
+      </c>
+      <c r="G6" s="24">
         <v>4.0708132160000003</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="24">
         <v>1.0855501910000001</v>
       </c>
-      <c r="I6" s="9">
-        <v>27.138754779999999</v>
-      </c>
-      <c r="J6" s="9">
-        <v>5.4277509539999998E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.16283252864</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.90462515899999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="24">
+        <v>27.138754769999998</v>
+      </c>
+      <c r="J6" s="24">
+        <v>5.4277509549999998E-2</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.1628325286</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.90462515909999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="21">
         <v>578.12</v>
       </c>
-      <c r="D7" s="7">
-        <v>2.4088274579999999E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.13007668276000001</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.17343557702000001</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4.3358894259999996</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="D7" s="23">
+        <v>2.408827459E-2</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.13007668280000001</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.17343557700000001</v>
+      </c>
+      <c r="G7" s="24">
+        <v>4.3358894250000004</v>
+      </c>
+      <c r="H7" s="24">
         <v>1.15623718</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="24">
         <v>28.905929499999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="24">
         <v>5.7811859E-2</v>
       </c>
-      <c r="K7" s="9">
-        <v>0.17343557702000001</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="24">
+        <v>0.17343557700000001</v>
+      </c>
+      <c r="L7" s="24">
         <v>0.96353098339999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>0.03</v>
       </c>
-      <c r="C8" s="6">
-        <v>631.14</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="21">
+        <v>631.13</v>
+      </c>
+      <c r="D8" s="23">
         <v>2.6297243000000001E-2</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.14200511218</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.18934014958000001</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4.7335037399999997</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.2622676638000001</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="E8" s="24">
+        <v>0.14200511220000001</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.18934014960000001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4.7335037389999997</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1.2622676639999999</v>
+      </c>
+      <c r="I8" s="24">
         <v>31.556691600000001</v>
       </c>
-      <c r="J8" s="9">
-        <v>6.3113383199999998E-2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.18934014958000001</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1.0518897197999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1">
+      <c r="J8" s="24">
+        <v>6.3113383189999997E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.18934014960000001</v>
+      </c>
+      <c r="L8" s="24">
+        <v>1.0518897199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>0.03</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="21">
         <v>620.78</v>
       </c>
-      <c r="D9" s="7">
-        <v>2.586596822E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.13967622834000001</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.18623497112000001</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="23">
+        <v>2.586596821E-2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.13967622830000001</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.18623497110000001</v>
+      </c>
+      <c r="G9" s="24">
         <v>4.6558742779999998</v>
       </c>
-      <c r="H9" s="9">
-        <v>1.2415664742000001</v>
-      </c>
-      <c r="I9" s="9">
-        <v>31.03916186</v>
-      </c>
-      <c r="J9" s="9">
-        <v>6.20783237E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0.18623497112000001</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1.0346387284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="H9" s="24">
+        <v>1.2415664740000001</v>
+      </c>
+      <c r="I9" s="24">
+        <v>31.039161849999999</v>
+      </c>
+      <c r="J9" s="24">
+        <v>6.2078323710000001E-2</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.18623497110000001</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1.034638728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>0.04</v>
       </c>
-      <c r="C10" s="6">
-        <v>1009.82</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="22">
+        <v>1009.81</v>
+      </c>
+      <c r="D10" s="23">
         <v>4.2075588800000001E-2</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.22720817939999999</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.30294423939999998</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7.5736059840000003</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="E10" s="24">
+        <v>0.2272081795</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.30294423929999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>7.5736059830000002</v>
+      </c>
+      <c r="H10" s="24">
         <v>2.0196282619999999</v>
       </c>
-      <c r="I10" s="9">
-        <v>50.49070656</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="24">
+        <v>50.490706549999999</v>
+      </c>
+      <c r="J10" s="24">
         <v>0.1009814131</v>
       </c>
-      <c r="K10" s="9">
-        <v>0.30294423939999998</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1.6830235518000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1">
+      <c r="K10" s="24">
+        <v>0.30294423929999997</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1.6830235520000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>0.03</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="21">
         <v>756.86</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="23">
         <v>3.1535653800000001E-2</v>
       </c>
-      <c r="E11" s="8">
-        <v>0.17029253053999999</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="24">
+        <v>0.17029253050000001</v>
+      </c>
+      <c r="F11" s="24">
         <v>0.2270567074</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="24">
         <v>5.6764176839999996</v>
       </c>
-      <c r="H11" s="9">
-        <v>1.5137113823999999</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="24">
+        <v>1.5137113820000001</v>
+      </c>
+      <c r="I11" s="24">
         <v>37.842784559999998</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="24">
         <v>7.5685569120000004E-2</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="24">
         <v>0.2270567074</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="24">
         <v>1.2614261520000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8">
+    <row r="12" spans="1:16" ht="15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>24000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="23">
         <v>5.4</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="23">
         <v>7.2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="25">
         <v>180</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="25">
         <v>48</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="25">
         <v>1200</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="25">
         <v>2.4</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="25">
         <v>7.2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="25">
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:16" ht="15"/>
+    <row r="14" spans="1:16" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1557,15 +1643,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636177E3-B406-4601-8E18-79D929A411BB}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C2" sqref="C2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.9" thickBot="1">
+    <row r="1" spans="1:12" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1603,422 +1689,424 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.03</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <v>621.04</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="19">
         <v>2.588E-2</v>
       </c>
-      <c r="E2" s="8">
-        <v>0.13973303038000001</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.18631070718000001</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="E2" s="20">
+        <v>0.13973303040000001</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.18631070720000001</v>
+      </c>
+      <c r="G2" s="20">
         <v>4.6577676800000001</v>
       </c>
-      <c r="H2" s="9">
-        <v>1.2420713811999999</v>
-      </c>
-      <c r="I2" s="9">
-        <v>31.05178454</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="H2" s="20">
+        <v>1.2420713809999999</v>
+      </c>
+      <c r="I2" s="20">
+        <v>31.051784529999999</v>
+      </c>
+      <c r="J2" s="20">
         <v>6.2103569060000002E-2</v>
       </c>
-      <c r="K2" s="9">
-        <v>0.18631070718000001</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1.0350594844000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+      <c r="K2" s="20">
+        <v>0.18631070720000001</v>
+      </c>
+      <c r="L2" s="20">
+        <v>1.035059484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.75</v>
       </c>
-      <c r="C3" s="10">
-        <v>13443.16</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.56013999999999997</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="C3" s="22">
+        <v>13443.15</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.56013000000000002</v>
+      </c>
+      <c r="E3" s="24">
         <v>3.0247088899999999</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="24">
         <v>4.0329451860000001</v>
       </c>
-      <c r="G3" s="9">
-        <v>100.82362965999999</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="24">
+        <v>100.8236297</v>
+      </c>
+      <c r="H3" s="24">
         <v>26.886301240000002</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="24">
         <v>672.15753099999995</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="24">
         <v>1.3443150619999999</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="24">
         <v>4.0329451860000001</v>
       </c>
-      <c r="L3" s="9">
-        <v>22.40525104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="L3" s="24">
+        <v>22.405251029999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.03</v>
       </c>
-      <c r="C4" s="6">
-        <v>461.98</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.924E-2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.10394774212000001</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="C4" s="21">
+        <v>461.99</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.925E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.1039477421</v>
+      </c>
+      <c r="F4" s="24">
         <v>0.13859698949999999</v>
       </c>
-      <c r="G4" s="9">
-        <v>3.4649247380000001</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.92397993</v>
-      </c>
-      <c r="I4" s="9">
-        <v>23.099498239999999</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="G4" s="24">
+        <v>3.464924737</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.9239799299</v>
+      </c>
+      <c r="I4" s="24">
+        <v>23.09949825</v>
+      </c>
+      <c r="J4" s="24">
         <v>4.6198996499999999E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="24">
         <v>0.13859698949999999</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="24">
         <v>0.76998327499999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.02</v>
       </c>
-      <c r="C5" s="6">
-        <v>369.22</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="21">
+        <v>369.21</v>
+      </c>
+      <c r="D5" s="23">
         <v>1.538E-2</v>
       </c>
-      <c r="E5" s="8">
-        <v>8.3072990619999995E-2</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="24">
+        <v>8.3072990629999996E-2</v>
+      </c>
+      <c r="F5" s="24">
         <v>0.11076398749999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="24">
         <v>2.7690996879999998</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="24">
         <v>0.7384265834</v>
       </c>
-      <c r="I5" s="9">
-        <v>18.460664584</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3.6921329160000002E-2</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5" s="24">
+        <v>18.46066458</v>
+      </c>
+      <c r="J5" s="24">
+        <v>3.6921329170000003E-2</v>
+      </c>
+      <c r="K5" s="24">
         <v>0.11076398749999999</v>
       </c>
-      <c r="L5" s="9">
-        <v>0.61535548620000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+      <c r="L5" s="24">
+        <v>0.61535548610000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.02</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="21">
         <v>407.08</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="23">
         <v>1.6959999999999999E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="24">
         <v>9.1593297360000006E-2</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.12212439647999999</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="24">
+        <v>0.1221243965</v>
+      </c>
+      <c r="G6" s="24">
         <v>3.053109912</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="24">
         <v>0.81416264319999998</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="24">
         <v>20.354066079999999</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="24">
         <v>4.070813216E-2</v>
       </c>
-      <c r="K6" s="9">
-        <v>0.12212439647999999</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.67846886939999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="K6" s="24">
+        <v>0.1221243965</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.67846886930000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.02</v>
       </c>
-      <c r="C7" s="6">
-        <v>433.58</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.806E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>9.7557512080000006E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.13007668276000001</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3.2519170700000002</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.86717788500000004</v>
-      </c>
-      <c r="I7" s="9">
-        <v>21.679447119999999</v>
-      </c>
-      <c r="J7" s="9">
-        <v>4.3358894260000003E-2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.13007668276000001</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="C7" s="21">
+        <v>433.59</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.8069999999999999E-2</v>
+      </c>
+      <c r="E7" s="24">
+        <v>9.7557512070000005E-2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.13007668280000001</v>
+      </c>
+      <c r="G7" s="24">
+        <v>3.2519170690000001</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.86717788510000005</v>
+      </c>
+      <c r="I7" s="24">
+        <v>21.67944713</v>
+      </c>
+      <c r="J7" s="24">
+        <v>4.3358894250000002E-2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.13007668280000001</v>
+      </c>
+      <c r="L7" s="24">
         <v>0.72264823759999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.03</v>
       </c>
-      <c r="C8" s="6">
-        <v>473.36</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="21">
+        <v>473.35</v>
+      </c>
+      <c r="D8" s="23">
         <v>1.9720000000000001E-2</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.10650383414</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.14200511218</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3.5501278040000002</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.94670074780000002</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="E8" s="24">
+        <v>0.1065038341</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.14200511220000001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>3.5501278049999998</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.94670074790000003</v>
+      </c>
+      <c r="I8" s="24">
         <v>23.667518699999999</v>
       </c>
-      <c r="J8" s="9">
-        <v>4.7335037400000002E-2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.14200511218</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.78891728999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="J8" s="24">
+        <v>4.7335037390000001E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.14200511220000001</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0.78891728989999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.03</v>
       </c>
-      <c r="C9" s="6">
-        <v>465.58</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="21">
+        <v>465.59</v>
+      </c>
+      <c r="D9" s="23">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.10475717126</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.13967622834000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>3.491905708</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="E9" s="24">
+        <v>0.10475717129999999</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.13967622830000001</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3.4919057090000001</v>
+      </c>
+      <c r="H9" s="24">
         <v>0.93117485560000002</v>
       </c>
-      <c r="I9" s="9">
-        <v>23.279371399999999</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="24">
+        <v>23.279371390000001</v>
+      </c>
+      <c r="J9" s="24">
         <v>4.6558742780000002E-2</v>
       </c>
-      <c r="K9" s="9">
-        <v>0.13967622834000001</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="24">
+        <v>0.13967622830000001</v>
+      </c>
+      <c r="L9" s="24">
         <v>0.77597904640000004</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.04</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="21">
         <v>757.36</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="23">
         <v>3.1559999999999998E-2</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.17040613462000001</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.22720817939999999</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5.6802044880000002</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.5147211966</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="E10" s="24">
+        <v>0.17040613460000001</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.2272081795</v>
+      </c>
+      <c r="G10" s="24">
+        <v>5.6802044870000001</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1.5147211970000001</v>
+      </c>
+      <c r="I10" s="24">
         <v>37.868029919999998</v>
       </c>
-      <c r="J10" s="9">
-        <v>7.5736059839999995E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.22720817939999999</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1.2622676638000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+      <c r="J10" s="24">
+        <v>7.5736059829999994E-2</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.2272081795</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1.2622676639999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.03</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="21">
         <v>567.64</v>
       </c>
-      <c r="D11" s="7">
-        <v>2.366E-2</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="23">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="E11" s="24">
         <v>0.1277193979</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.17029253053999999</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4.2573132640000004</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.1352835368</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="F11" s="24">
+        <v>0.17029253050000001</v>
+      </c>
+      <c r="G11" s="24">
+        <v>4.2573132630000003</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1.1352835370000001</v>
+      </c>
+      <c r="I11" s="24">
         <v>28.382088419999999</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="24">
         <v>5.676417684E-2</v>
       </c>
-      <c r="K11" s="9">
-        <v>0.17029253053999999</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.946069614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8">
+      <c r="K11" s="24">
+        <v>0.17029253050000001</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.94606961410000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="26">
         <v>18000</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="24">
         <v>0.75</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="24">
         <v>4.05</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="24">
         <v>5.4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="24">
         <v>135</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="24">
         <v>36</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="24">
         <v>900</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="24">
         <v>1.8</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="24">
         <v>5.4</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="24">
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="15"/>
+    <row r="14" spans="1:12" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,15 +2114,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF121C3C-DE76-48F2-9309-E20296638663}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C2" sqref="C2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.9" thickBot="1">
+    <row r="1" spans="1:12" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2072,422 +2160,424 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.03</v>
       </c>
-      <c r="C2" s="6">
-        <v>207.02</v>
-      </c>
-      <c r="D2" s="7">
-        <v>8.6254957039999993E-3</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4.6577676800000002E-2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>6.2103569060000002E-2</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1.5525892266000001</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.41402379379999998</v>
-      </c>
-      <c r="I2" s="9">
-        <v>10.350594844</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2.0701189679999999E-2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>6.2103569060000002E-2</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.34501982819999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+      <c r="C2" s="18">
+        <v>360</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.108</v>
+      </c>
+      <c r="G2" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="I2" s="20">
+        <v>18</v>
+      </c>
+      <c r="J2" s="20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0.108</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.75</v>
       </c>
-      <c r="C3" s="10">
-        <v>4481.0600000000004</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.18671042528000001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1.0082362966</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.3443150619999999</v>
-      </c>
-      <c r="G3" s="9">
-        <v>33.607876560000001</v>
-      </c>
-      <c r="H3" s="9">
-        <v>8.962100414</v>
-      </c>
-      <c r="I3" s="9">
-        <v>224.05251039999999</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.44810502060000001</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1.3443150619999999</v>
-      </c>
-      <c r="L3" s="9">
-        <v>7.4684170119999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="C3" s="22">
+        <v>9000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="F3" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="G3" s="24">
+        <v>67.5</v>
+      </c>
+      <c r="H3" s="24">
+        <v>18</v>
+      </c>
+      <c r="I3" s="24">
+        <v>450</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="L3" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.03</v>
       </c>
-      <c r="C4" s="6">
-        <v>154</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6.4165272919999997E-3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3.4649247379999998E-2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>4.6198996499999999E-2</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1.1549749123999999</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.30799331000000002</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7.6998327499999997</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1.53996655E-2</v>
-      </c>
-      <c r="K4" s="9">
-        <v>4.6198996499999999E-2</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.2566610916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="C4" s="21">
+        <v>360</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="G4" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="I4" s="24">
+        <v>18</v>
+      </c>
+      <c r="J4" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.02</v>
       </c>
-      <c r="C5" s="6">
-        <v>123.08</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5.127962384E-3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.7690996879999999E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3.6921329160000002E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.92303322919999997</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.24614219439999999</v>
-      </c>
-      <c r="I5" s="9">
-        <v>6.153554862</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1.2307109722E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3.6921329160000002E-2</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.20511849539999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+      <c r="C5" s="21">
+        <v>240</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F5" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="I5" s="24">
+        <v>12</v>
+      </c>
+      <c r="J5" s="24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.02</v>
       </c>
-      <c r="C6" s="6">
-        <v>135.69999999999999</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.6539072439999996E-3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3.0531099119999999E-2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4.070813216E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.0177033040000001</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.27138754780000002</v>
-      </c>
-      <c r="I6" s="9">
-        <v>6.7846886939999997</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1.3569377386E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4.070813216E-2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.22615628979999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="21">
+        <v>240</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="I6" s="24">
+        <v>12</v>
+      </c>
+      <c r="J6" s="24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K6" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.02</v>
       </c>
-      <c r="C7" s="6">
-        <v>144.52000000000001</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6.0220686460000002E-3</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3.2519170700000002E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4.3358894260000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1.0839723563999999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.28905929499999999</v>
-      </c>
-      <c r="I7" s="9">
-        <v>7.2264823759999999</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1.4452964751999999E-2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>4.3358894260000003E-2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.24088274579999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+      <c r="C7" s="21">
+        <v>240</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="I7" s="24">
+        <v>12</v>
+      </c>
+      <c r="J7" s="24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.03</v>
       </c>
-      <c r="C8" s="6">
-        <v>157.78</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6.5743107500000003E-3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3.5501278040000001E-2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4.7335037400000002E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.1833759347999999</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.31556691599999998</v>
-      </c>
-      <c r="I8" s="9">
-        <v>7.8891729000000002</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1.5778345797999999E-2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4.7335037400000002E-2</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.26297242999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="C8" s="21">
+        <v>360</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="I8" s="24">
+        <v>18</v>
+      </c>
+      <c r="J8" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.03</v>
       </c>
-      <c r="C9" s="6">
-        <v>155.19999999999999</v>
-      </c>
-      <c r="D9" s="7">
-        <v>6.4664920519999997E-3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3.4919057080000003E-2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4.6558742780000002E-2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.1639685695999999</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.31039161859999997</v>
-      </c>
-      <c r="I9" s="9">
-        <v>7.7597904639999999</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1.5519580928E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <v>4.6558742780000002E-2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.25865968220000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+      <c r="C9" s="21">
+        <v>360</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="G9" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="I9" s="24">
+        <v>18</v>
+      </c>
+      <c r="J9" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.04</v>
       </c>
-      <c r="C10" s="6">
-        <v>252.46</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.0518897197999999E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5.6802044879999999E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>7.5736059839999995E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.8934014958000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.50490706559999998</v>
-      </c>
-      <c r="I10" s="9">
-        <v>12.622676638</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2.5245353280000001E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <v>7.5736059839999995E-2</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.42075588800000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+      <c r="C10" s="21">
+        <v>480</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="I10" s="24">
+        <v>24</v>
+      </c>
+      <c r="J10" s="24">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.03</v>
       </c>
-      <c r="C11" s="6">
-        <v>189.22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7.8839134500000001E-3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.2573132639999997E-2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>5.676417684E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1.4191044209999999</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.37842784559999998</v>
-      </c>
-      <c r="I11" s="9">
-        <v>9.4606961399999996</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1.8921392281999998E-2</v>
-      </c>
-      <c r="K11" s="9">
-        <v>5.676417684E-2</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.31535653800000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9">
+      <c r="C11" s="21">
+        <v>360</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="24">
+        <v>18</v>
+      </c>
+      <c r="J11" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.108</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="20">
-        <v>6000</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="G12" s="9">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9">
-        <v>300</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="L12" s="9">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="C12" s="22">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="G12" s="24">
+        <v>90</v>
+      </c>
+      <c r="H12" s="24">
+        <v>24</v>
+      </c>
+      <c r="I12" s="24">
+        <v>600</v>
+      </c>
+      <c r="J12" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="L12" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15"/>
+    <row r="14" spans="1:12" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2495,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4F50ED-B50E-400B-9842-9AC647150CDB}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2506,7 +2596,7 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.9" thickBot="1">
+    <row r="1" spans="1:12" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2544,422 +2634,424 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.03</v>
       </c>
-      <c r="C2" s="6">
-        <v>207.02</v>
-      </c>
-      <c r="D2" s="7">
-        <v>8.6254957039999993E-3</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="18">
+        <v>207.01</v>
+      </c>
+      <c r="D2" s="19">
+        <v>8.6300000000000005E-3</v>
+      </c>
+      <c r="E2" s="20">
         <v>4.6577676800000002E-2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="20">
         <v>6.2103569060000002E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>1.5525892266000001</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.41402379379999998</v>
-      </c>
-      <c r="I2" s="9">
-        <v>10.350594844</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2.0701189679999999E-2</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="G2" s="20">
+        <v>1.5525892269999999</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.41402379369999998</v>
+      </c>
+      <c r="I2" s="20">
+        <v>10.350594839999999</v>
+      </c>
+      <c r="J2" s="20">
+        <v>2.070118969E-2</v>
+      </c>
+      <c r="K2" s="20">
         <v>6.2103569060000002E-2</v>
       </c>
-      <c r="L2" s="9">
-        <v>0.34501982819999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+      <c r="L2" s="20">
+        <v>0.34501982809999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.75</v>
       </c>
-      <c r="C3" s="10">
-        <v>4481.0600000000004</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.18671042528000001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1.0082362966</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="22">
+        <v>4481.05</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.18670999999999999</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1.0082362970000001</v>
+      </c>
+      <c r="F3" s="24">
         <v>1.3443150619999999</v>
       </c>
-      <c r="G3" s="9">
-        <v>33.607876560000001</v>
-      </c>
-      <c r="H3" s="9">
-        <v>8.962100414</v>
-      </c>
-      <c r="I3" s="9">
-        <v>224.05251039999999</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.44810502060000001</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="G3" s="24">
+        <v>33.60787655</v>
+      </c>
+      <c r="H3" s="24">
+        <v>8.9621004129999999</v>
+      </c>
+      <c r="I3" s="24">
+        <v>224.05251029999999</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.44810502070000002</v>
+      </c>
+      <c r="K3" s="24">
         <v>1.3443150619999999</v>
       </c>
-      <c r="L3" s="9">
-        <v>7.4684170119999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="L3" s="24">
+        <v>7.4684170109999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.03</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="21">
         <v>154</v>
       </c>
-      <c r="D4" s="7">
-        <v>6.4165272919999997E-3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3.4649247379999998E-2</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="23">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3.4649247369999997E-2</v>
+      </c>
+      <c r="F4" s="24">
         <v>4.6198996499999999E-2</v>
       </c>
-      <c r="G4" s="9">
-        <v>1.1549749123999999</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="24">
+        <v>1.1549749119999999</v>
+      </c>
+      <c r="H4" s="24">
         <v>0.30799331000000002</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="24">
         <v>7.6998327499999997</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="24">
         <v>1.53996655E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="24">
         <v>4.6198996499999999E-2</v>
       </c>
-      <c r="L4" s="9">
-        <v>0.2566610916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="L4" s="24">
+        <v>0.25666109170000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.02</v>
       </c>
-      <c r="C5" s="6">
-        <v>123.08</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5.127962384E-3</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="21">
+        <v>123.07</v>
+      </c>
+      <c r="D5" s="23">
+        <v>5.13E-3</v>
+      </c>
+      <c r="E5" s="24">
         <v>2.7690996879999999E-2</v>
       </c>
-      <c r="F5" s="9">
-        <v>3.6921329160000002E-2</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="24">
+        <v>3.6921329170000003E-2</v>
+      </c>
+      <c r="G5" s="24">
         <v>0.92303322919999997</v>
       </c>
-      <c r="H5" s="9">
-        <v>0.24614219439999999</v>
-      </c>
-      <c r="I5" s="9">
-        <v>6.153554862</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1.2307109722E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3.6921329160000002E-2</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="H5" s="24">
+        <v>0.24614219449999999</v>
+      </c>
+      <c r="I5" s="24">
+        <v>6.1535548609999999</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1.2307109720000001E-2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>3.6921329170000003E-2</v>
+      </c>
+      <c r="L5" s="24">
         <v>0.20511849539999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.02</v>
       </c>
-      <c r="C6" s="6">
-        <v>135.69999999999999</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.6539072439999996E-3</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="21">
+        <v>135.69</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5.6499999999999996E-3</v>
+      </c>
+      <c r="E6" s="24">
         <v>3.0531099119999999E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="24">
         <v>4.070813216E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="24">
         <v>1.0177033040000001</v>
       </c>
-      <c r="H6" s="9">
-        <v>0.27138754780000002</v>
-      </c>
-      <c r="I6" s="9">
-        <v>6.7846886939999997</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1.3569377386E-2</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="H6" s="24">
+        <v>0.27138754770000001</v>
+      </c>
+      <c r="I6" s="24">
+        <v>6.7846886929999997</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1.356937739E-2</v>
+      </c>
+      <c r="K6" s="24">
         <v>4.070813216E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="24">
         <v>0.22615628979999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.02</v>
       </c>
-      <c r="C7" s="6">
-        <v>144.52000000000001</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6.0220686460000002E-3</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3.2519170700000002E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4.3358894260000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1.0839723563999999</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="C7" s="21">
+        <v>144.53</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6.0200000000000002E-3</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3.2519170690000002E-2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4.3358894250000002E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1.0839723560000001</v>
+      </c>
+      <c r="H7" s="24">
         <v>0.28905929499999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="24">
         <v>7.2264823759999999</v>
       </c>
-      <c r="J7" s="9">
-        <v>1.4452964751999999E-2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>4.3358894260000003E-2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.24088274579999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+      <c r="J7" s="24">
+        <v>1.445296475E-2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>4.3358894250000002E-2</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0.2408827459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.03</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="21">
         <v>157.78</v>
       </c>
-      <c r="D8" s="7">
-        <v>6.5743107500000003E-3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3.5501278040000001E-2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4.7335037400000002E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.1833759347999999</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D8" s="23">
+        <v>6.5700000000000003E-3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3.5501278050000001E-2</v>
+      </c>
+      <c r="F8" s="24">
+        <v>4.7335037390000001E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1.1833759349999999</v>
+      </c>
+      <c r="H8" s="24">
         <v>0.31556691599999998</v>
       </c>
-      <c r="I8" s="9">
-        <v>7.8891729000000002</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1.5778345797999999E-2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4.7335037400000002E-2</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="I8" s="24">
+        <v>7.8891728990000001</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1.5778345799999999E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>4.7335037390000001E-2</v>
+      </c>
+      <c r="L8" s="24">
         <v>0.26297242999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.03</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="21">
         <v>155.19999999999999</v>
       </c>
-      <c r="D9" s="7">
-        <v>6.4664920519999997E-3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3.4919057080000003E-2</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="23">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>3.4919057089999997E-2</v>
+      </c>
+      <c r="F9" s="24">
         <v>4.6558742780000002E-2</v>
       </c>
-      <c r="G9" s="9">
-        <v>1.1639685695999999</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.31039161859999997</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="G9" s="24">
+        <v>1.16396857</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.31039161850000002</v>
+      </c>
+      <c r="I9" s="24">
         <v>7.7597904639999999</v>
       </c>
-      <c r="J9" s="9">
-        <v>1.5519580928E-2</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="J9" s="24">
+        <v>1.551958093E-2</v>
+      </c>
+      <c r="K9" s="24">
         <v>4.6558742780000002E-2</v>
       </c>
-      <c r="L9" s="9">
-        <v>0.25865968220000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+      <c r="L9" s="24">
+        <v>0.25865968210000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.04</v>
       </c>
-      <c r="C10" s="6">
-        <v>252.46</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.0518897197999999E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5.6802044879999999E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>7.5736059839999995E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.8934014958000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.50490706559999998</v>
-      </c>
-      <c r="I10" s="9">
-        <v>12.622676638</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="C10" s="21">
+        <v>252.45</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1.052E-2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>5.6802044869999999E-2</v>
+      </c>
+      <c r="F10" s="24">
+        <v>7.5736059829999994E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1.8934014960000001</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.50490706549999997</v>
+      </c>
+      <c r="I10" s="24">
+        <v>12.62267664</v>
+      </c>
+      <c r="J10" s="24">
         <v>2.5245353280000001E-2</v>
       </c>
-      <c r="K10" s="9">
-        <v>7.5736059839999995E-2</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="24">
+        <v>7.5736059829999994E-2</v>
+      </c>
+      <c r="L10" s="24">
         <v>0.42075588800000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.03</v>
       </c>
-      <c r="C11" s="6">
-        <v>189.22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7.8839134500000001E-3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.2573132639999997E-2</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="C11" s="21">
+        <v>189.21</v>
+      </c>
+      <c r="D11" s="23">
+        <v>7.8799999999999999E-3</v>
+      </c>
+      <c r="E11" s="24">
+        <v>4.2573132630000003E-2</v>
+      </c>
+      <c r="F11" s="24">
         <v>5.676417684E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="24">
         <v>1.4191044209999999</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="24">
         <v>0.37842784559999998</v>
       </c>
-      <c r="I11" s="9">
-        <v>9.4606961399999996</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1.8921392281999998E-2</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11" s="24">
+        <v>9.4606961409999997</v>
+      </c>
+      <c r="J11" s="24">
+        <v>1.8921392280000001E-2</v>
+      </c>
+      <c r="K11" s="24">
         <v>5.676417684E-2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="24">
         <v>0.31535653800000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9">
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <v>6000</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="23">
         <v>0.25</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="24">
         <v>1.35</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="24">
         <v>1.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="24">
         <v>45</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="24">
         <v>12</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="24">
         <v>300</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="24">
         <v>0.6</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="24">
         <v>1.8</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="24">
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="15"/>
+    <row r="14" spans="1:12" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2970,7 +3062,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -3017,7 +3109,7 @@
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.03</v>
       </c>
       <c r="C2" s="6">
@@ -3055,7 +3147,7 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.75</v>
       </c>
       <c r="C3" s="6">
@@ -3093,7 +3185,7 @@
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
@@ -3131,7 +3223,7 @@
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.02</v>
       </c>
       <c r="C5" s="6">
@@ -3169,7 +3261,7 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.02</v>
       </c>
       <c r="C6" s="6">
@@ -3204,10 +3296,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.02</v>
       </c>
       <c r="C7" s="6">
@@ -3245,7 +3337,7 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.03</v>
       </c>
       <c r="C8" s="6">
@@ -3283,7 +3375,7 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.03</v>
       </c>
       <c r="C9" s="6">
@@ -3313,7 +3405,7 @@
       <c r="K9" s="6">
         <v>0</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3321,7 +3413,7 @@
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.04</v>
       </c>
       <c r="C10" s="6">
@@ -3359,7 +3451,7 @@
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.03</v>
       </c>
       <c r="C11" s="6">
@@ -3394,8 +3486,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="6">
